--- a/Tests/TC - projekt z Gospodarki.xlsx
+++ b/Tests/TC - projekt z Gospodarki.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zack\Desktop\Studia - mgr\Semestr 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zack\workspace\Automated Test\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" tabRatio="711" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" tabRatio="711"/>
   </bookViews>
   <sheets>
     <sheet name="Wszystkie TCs" sheetId="8" r:id="rId1"/>
@@ -21,10 +21,14 @@
     <sheet name="Dodaj ofertę" sheetId="6" r:id="rId7"/>
     <sheet name="Ulubione" sheetId="4" r:id="rId8"/>
     <sheet name="Zgłasznie błędów" sheetId="9" r:id="rId9"/>
-    <sheet name="Admin" sheetId="10" r:id="rId10"/>
+    <sheet name="Oferty lista - admin" sheetId="10" r:id="rId10"/>
+    <sheet name="Użytkownicy - admin" sheetId="11" r:id="rId11"/>
+    <sheet name="Zgłoszone błędy - admin" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Oferty lista - admin'!$A$1:$G$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Ulubione!$A$1:$G$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Użytkownicy - admin'!$A$1:$G$11</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="249">
   <si>
     <t>Nazwa TC</t>
   </si>
@@ -91,17 +95,6 @@
     <t>Naciśnij na link "Zarejestruj się za darmo"</t>
   </si>
   <si>
-    <t>Powinna zostać załadowana strona z następującymi polami:
-- E-mail
-- Imię
-- Nazwisko
-- Nr telefonu
-- Login
-- Hasło
-- Powtórz hasło
-Poniżej wymienionych pól powinnien być guzik "Zarejestruj" (wyłączony). Poniżej guzika powinnien znajdować się link "Wróć do strony logowania".</t>
-  </si>
-  <si>
     <t>Wypełnij wszystkie pola prawidłowymi danymi i naciśnij "Zarejestruj".</t>
   </si>
   <si>
@@ -151,17 +144,6 @@
   </si>
   <si>
     <t>Wykonaj scenariusz TC ID = 001. Zapamiętaj dane wykorzystane do rejestracji.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Powinna zostać załadowana strona z następującymi polami:
-- E-mail
-- Imię
-- Nazwisko
-- Nr telefonu
-- Login
-- Hasło
-- Powtórz hasło
-Poniżej wymienionych pól powinnien być guzik "Zarejestruj" (wyłączony). Poniżej guzika powinnien znajdować się link "Wróć do </t>
   </si>
   <si>
     <t>Wypełnij wszystkie pola danymi wykorzystannymi w kroku 1.</t>
@@ -288,9 +270,6 @@
     <t>Wypełnij pole "Typ oferty" i spróbuj nacisnąć przycisk "Dodaj ofertę".</t>
   </si>
   <si>
-    <t>Po wypełnieniu wszystkich powyższych pól i nie wybraniu "Typu oferty" przcisk "Dodaj ofertę" jest aktywny.</t>
-  </si>
-  <si>
     <t>Brak powrotu do strony głównej bez logowania</t>
   </si>
   <si>
@@ -327,11 +306,6 @@
 - Login
 - Hasło
 Poniżej wymienionych pól powinnien znajdować się guzik "Zaloguj" (wyłączony). Poniżej guzika powinnien się znajdować link "Zarejestruj się za darmo"</t>
-  </si>
-  <si>
-    <t>Czasami nazwy w menu przyjmują wartość metod z klasy ( tak sądze bo wyglądają tak:
-- menu.login
-- menu.new_offers) ale zauważyłem to tylko dla gościa (nie zalogowanego)</t>
   </si>
   <si>
     <t>W pasku adresu usuń "#/login" i naciśnij enter.</t>
@@ -415,21 +389,6 @@
     <t>013</t>
   </si>
   <si>
-    <t>023</t>
-  </si>
-  <si>
-    <t>014</t>
-  </si>
-  <si>
-    <t>015</t>
-  </si>
-  <si>
-    <t>016</t>
-  </si>
-  <si>
-    <t>017</t>
-  </si>
-  <si>
     <t>021</t>
   </si>
   <si>
@@ -564,9 +523,6 @@
     <t>W polu "Komentarz" podaj przykładowy tekst i naciśnij Enter.</t>
   </si>
   <si>
-    <t>Komentarz nie zostaje dodany. Nic się nie dzieje</t>
-  </si>
-  <si>
     <t>Dodawanie komentarzy - zalogowany</t>
   </si>
   <si>
@@ -576,12 +532,6 @@
     <t>Wykonaj TC ID = 041</t>
   </si>
   <si>
-    <t>Wprowadź dane logowanie istniejącego użytkownika. Np.:
-Login = abc
-Hasło = Test1
-i naciśnij "Zaloguj".</t>
-  </si>
-  <si>
     <t>Komentarz został dodany oraz pojawił się komunikat z następującym tekstem: "Komentarz został dodany.".</t>
   </si>
   <si>
@@ -601,9 +551,6 @@
   </si>
   <si>
     <t>Wypełnij wszystkie pola oraz dodaj plik tekstowy zamiast zdjęcia. Następnie naciśnij przycisk "Dodaj ofertę".</t>
-  </si>
-  <si>
-    <t>Oferta się nie dodaje (przycisk jest aktywny) - Pole "Opis" jest przyczyną</t>
   </si>
   <si>
     <t>Wykonaj kroki od 1 - 7 dla TC ID = 051</t>
@@ -752,6 +699,197 @@
   </si>
   <si>
     <t>072</t>
+  </si>
+  <si>
+    <t>Wypełnij pole Email nieprawidłowym adresem email i spróbuj naciśnąć "Wyślij".</t>
+  </si>
+  <si>
+    <t>Powinnien pojawić się komunikat pod polem "Niepoprawny format maila". Przycisk "Wyślij wciąż jest nieaktywny.</t>
+  </si>
+  <si>
+    <t>Podaj wartość do pola Tytuł i spróbuj nacisnąć przycisk "Wyślij".</t>
+  </si>
+  <si>
+    <t>Przycisk "Wyślij" jest wciąż nieaktywny.</t>
+  </si>
+  <si>
+    <t>Wyczyszść poprzednie pola i wypełnij tylko pole Treść wiadomości. Spróbuj nacisnąć przycisk "Wyslij".</t>
+  </si>
+  <si>
+    <t>081</t>
+  </si>
+  <si>
+    <t>082</t>
+  </si>
+  <si>
+    <t>083</t>
+  </si>
+  <si>
+    <t>Archiwizacja ofert</t>
+  </si>
+  <si>
+    <t>Wprowadź dane logowanie istniejącego użytkownika. Np.:
+Login = admin
+Hasło = admin</t>
+  </si>
+  <si>
+    <t>Powinna zostać załadowana główna strona "Flats &amp; Hauses". Po lewej stronie w rozwijanym menu, powinny być następujące pozycje:
+- Moje konto
+- Moje oferty
+- Wyloguj
+- Oferty (lista)
+- Nowe oferty
+- Zgłoszone błędy
+- Ulubione
+- Dodaj ofertę</t>
+  </si>
+  <si>
+    <t>Przejdź do zakładki "Oferty (lista)" za pomocą menu po lewej stronie.</t>
+  </si>
+  <si>
+    <t>Wybierz jedną ofertę i przyciśnij przycisk "Archiwizuj".</t>
+  </si>
+  <si>
+    <t>Powinnien pokazać się komunikat z następującym tekstem: "Status oferty został zmieniony." Przy tej ofercie przycisk "Archiwizuj" powinnien się zmienić na przycisk "Przywróć".</t>
+  </si>
+  <si>
+    <t>Przywrócenie oferty</t>
+  </si>
+  <si>
+    <t>Naciśnij przycisk "Przywróć" dla oferty zarchiwizowanej.</t>
+  </si>
+  <si>
+    <t>Powinno pojawić nowe okno z zapytanie "Czy na pewno chcesz zmienić status oferty ?" oraz dwa dostępne przyciski "Tak" i "Nie".</t>
+  </si>
+  <si>
+    <t>Naciśni przycisk "Tak".</t>
+  </si>
+  <si>
+    <t>Naciśnij przycisk "Tak".</t>
+  </si>
+  <si>
+    <t>Przejdź do zakładki "Nowe oferty" i sprawdź czy zarchiwizowana oferta nie jest widoczna.</t>
+  </si>
+  <si>
+    <t>Oferta powinna być nie widoczna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wykonaj kroki 1-7 dla TC ID = 081 </t>
+  </si>
+  <si>
+    <t>Przejdź do zakładki "Nowe oferty" i sprawdź czy przywrócona  oferta  jest widoczna.</t>
+  </si>
+  <si>
+    <t>Oferta powinna być widoczna.</t>
+  </si>
+  <si>
+    <t>Usuwanie ofert</t>
+  </si>
+  <si>
+    <t>Wykonaj kroki 1-5 dla TC ID = 081</t>
+  </si>
+  <si>
+    <t>Wszystkie kroki zostały wykonane pomyślnie.</t>
+  </si>
+  <si>
+    <t>Wybierz jedną ofertę i przyciśnij przycisk "Usuń".</t>
+  </si>
+  <si>
+    <t>Powinno pojawić nowe okno z zapytanie "Czy na pewno chcesz usunąć ofertę ?" oraz dwa dostępne przyciski "Tak" i "Nie".</t>
+  </si>
+  <si>
+    <t>Powinnien pokazać się komunikat z następującym tekstem: "Oferta została usunięta." Oferta nie powinna być już widoczna na liście.</t>
+  </si>
+  <si>
+    <t>Przejdź do zakładki "Nowe oferty" i sprawdź czy usunięta oferta jest niewidczona.</t>
+  </si>
+  <si>
+    <t>Oferta jest niewidoczna.</t>
+  </si>
+  <si>
+    <t>Zablokowanie użytkownika</t>
+  </si>
+  <si>
+    <t>Przejdź do zakładki "Użytkownicy" za pomocą menu po lewej stronie.</t>
+  </si>
+  <si>
+    <t>Powinna zostać załadowan strona "Użytkownicy" Użytkownikowi powinny ukazać się  tabela z następującymi kolumnami:
+- Login
+- Imię
+- Nazwisko
+- Nr telefonu
+- Odblokowany
+- (bez nazwy)
+W tabeli powinny znajdować się wszyscy użytkownicy.</t>
+  </si>
+  <si>
+    <t>Powinna zostać załadowan strona "Oferty". Użytkownikowi powinny ukazać się tabela z następującymi kolumnami:
+- ID
+- Nazwa oferty
+- Data dodania
+- Zachiwizowana
+- Archiwizuj / Przywróć
+- (bez nazwy)
+W tabeli powinny znajdować się wszystkie oferty jakie są dostępne lub zarchiwizowane.</t>
+  </si>
+  <si>
+    <t>Wybierz użytkownika i naciśnij przycisk "Zablokuj".</t>
+  </si>
+  <si>
+    <t>Powinien pojawić się komunikat "Użytkownik &lt;nazwa użytkownika&gt; został zablokowany." oraz status w kolumnie "Odblokowany" powinien zmienić się na "nie".</t>
+  </si>
+  <si>
+    <t>Wyloguj się i spróbuj się zalogować jako użytkownik zablokowany.</t>
+  </si>
+  <si>
+    <t>Podczas próby logowania powinnien pokazać się komunikat: "Twoje konto zostało zablokowane przez administratora." oraz użytkownik powinnien zostać na stronie logowania.</t>
+  </si>
+  <si>
+    <t>Odblokowanie użytkownika</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wykonaj TC ID = 091</t>
+  </si>
+  <si>
+    <t>Wszystkie kroki powinny zostać wykonane pomyślnie.</t>
+  </si>
+  <si>
+    <t>Naciśnij przycisk "Odblokuj" przy użytkowniku zablokowanym.</t>
+  </si>
+  <si>
+    <t>Powinnien pojawić się następujący komunikat: "Użytkownik Test1 został odblokowany." oraz wartość w kolumnie "Odblokowany" powinna się zmienić na "tak". Przycisk powinnien się zmienić na "Zablokuj".</t>
+  </si>
+  <si>
+    <t>Wyloguj się i spróbuj się zalogować jako użytkownik odblokowany</t>
+  </si>
+  <si>
+    <t>Pomyślnie zalogowano się na odblokowanego użytkownika.</t>
+  </si>
+  <si>
+    <t>Sprawdzenie nowych zgłoszeń</t>
+  </si>
+  <si>
+    <t>Wykonaj TC ID = 071</t>
+  </si>
+  <si>
+    <t>Wszystkie kroki zakończyły się sukcesem.</t>
+  </si>
+  <si>
+    <t>Przejdź do zakładki "Zgłoszone błędy" za pomocą menu po lewej stronie.</t>
+  </si>
+  <si>
+    <t>Powinna zostać załadowan strona "Zgłoszone błędy" Użytkownikowi powinny ukazać się  tabela z następującymi kolumnami:
+- Data dodania
+- Email (do uzyskania odpowiedzi}
+- Tytuł wiadomości
+- Treść wiadomości
+W tabeli powinny znajdować się wszystkie zgłoszenia wysłane przez formularz w zakładce "Zgłasznie błędów".</t>
+  </si>
+  <si>
+    <t>Sprawdź czy jest widoczny wpis z opisem błędu z kroku 1.</t>
+  </si>
+  <si>
+    <t>Powinnien  istnieć taki wpis w tabeli.</t>
   </si>
 </sst>
 </file>
@@ -801,7 +939,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -853,8 +991,14 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="52">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -1523,6 +1667,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1530,7 +1703,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="306">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1931,9 +2104,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2048,27 +2218,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2086,9 +2238,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2211,11 +2360,261 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2224,14 +2623,52 @@
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Zły" xfId="2" builtinId="27"/>
   </cellStyles>
-  <dxfs count="79">
+  <dxfs count="107">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
-        <right style="thick">
+        <right style="thin">
           <color auto="1"/>
         </right>
         <top/>
@@ -2240,6 +2677,46 @@
           <color auto="1"/>
         </vertical>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -2274,6 +2751,377 @@
         <right style="thin">
           <color auto="1"/>
         </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
         <top/>
         <bottom/>
         <vertical style="thin">
@@ -2287,15 +3135,67 @@
         <left style="thin">
           <color auto="1"/>
         </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
         <vertical style="thin">
           <color auto="1"/>
         </vertical>
-        <horizontal/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -2306,12 +3206,18 @@
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
         <vertical style="thin">
           <color auto="1"/>
         </vertical>
-        <horizontal/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -2322,17 +3228,21 @@
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
         <vertical style="thin">
           <color auto="1"/>
         </vertical>
-        <horizontal/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -2340,29 +3250,18 @@
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
         <vertical style="thin">
           <color auto="1"/>
         </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thick">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -2397,6 +3296,179 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3923,44 +4995,6 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3975,128 +5009,176 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela18" displayName="Tabela18" ref="A1:G107" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
-  <autoFilter ref="A1:G107"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabela113" displayName="Tabela113" ref="A1:G167" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G167"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Nazwa TC" dataDxfId="76"/>
-    <tableColumn id="2" name="TC ID" dataDxfId="75"/>
-    <tableColumn id="3" name="Numer kroku" dataDxfId="74"/>
-    <tableColumn id="4" name="Czynność" dataDxfId="73"/>
-    <tableColumn id="5" name="Oczekiwany rezultat" dataDxfId="72"/>
-    <tableColumn id="6" name="Aktualny rezultat" dataDxfId="71"/>
-    <tableColumn id="7" name="Dodatkowy opis" dataDxfId="70"/>
+    <tableColumn id="1" name="Nazwa TC" dataDxfId="6"/>
+    <tableColumn id="2" name="TC ID" dataDxfId="5"/>
+    <tableColumn id="3" name="Numer kroku" dataDxfId="4"/>
+    <tableColumn id="4" name="Czynność" dataDxfId="3"/>
+    <tableColumn id="5" name="Oczekiwany rezultat" dataDxfId="2"/>
+    <tableColumn id="6" name="Aktualny rezultat" dataDxfId="1"/>
+    <tableColumn id="7" name="Dodatkowy opis" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabela10" displayName="Tabela10" ref="A1:G11" totalsRowShown="0" headerRowDxfId="17" dataDxfId="18" headerRowBorderDxfId="26" tableBorderDxfId="27">
+  <autoFilter ref="A1:G11"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Nazwa TC" dataDxfId="25"/>
+    <tableColumn id="2" name="TC ID" dataDxfId="24"/>
+    <tableColumn id="3" name="Numer kroku" dataDxfId="23"/>
+    <tableColumn id="4" name="Czynność" dataDxfId="22"/>
+    <tableColumn id="5" name="Oczekiwany rezultat" dataDxfId="21"/>
+    <tableColumn id="6" name="Aktualny rezultat" dataDxfId="20" dataCellStyle="Dobry"/>
+    <tableColumn id="7" name="Dodatkowy opis" dataDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabela11" displayName="Tabela11" ref="A1:G8" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="A1:G8"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Nazwa TC" dataDxfId="10"/>
+    <tableColumn id="2" name="TC ID" dataDxfId="9"/>
+    <tableColumn id="3" name="Numer kroku" dataDxfId="15"/>
+    <tableColumn id="4" name="Czynność" dataDxfId="14"/>
+    <tableColumn id="5" name="Oczekiwany rezultat" dataDxfId="13"/>
+    <tableColumn id="6" name="Aktualny rezultat" dataDxfId="12" dataCellStyle="Dobry"/>
+    <tableColumn id="7" name="Dodatkowy opis" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G18" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G18" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105">
   <autoFilter ref="A1:G18"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Nazwa TC" dataDxfId="67"/>
-    <tableColumn id="2" name="TC ID" dataDxfId="66"/>
-    <tableColumn id="3" name="Numer kroku" dataDxfId="65"/>
-    <tableColumn id="4" name="Czynność" dataDxfId="64"/>
-    <tableColumn id="5" name="Oczekiwany rezultat" dataDxfId="63"/>
-    <tableColumn id="6" name="Aktualny rezultat" dataDxfId="62"/>
-    <tableColumn id="7" name="Dodatkowy opis" dataDxfId="61"/>
+    <tableColumn id="1" name="Nazwa TC" dataDxfId="104"/>
+    <tableColumn id="2" name="TC ID" dataDxfId="103"/>
+    <tableColumn id="3" name="Numer kroku" dataDxfId="102"/>
+    <tableColumn id="4" name="Czynność" dataDxfId="101"/>
+    <tableColumn id="5" name="Oczekiwany rezultat" dataDxfId="100"/>
+    <tableColumn id="6" name="Aktualny rezultat" dataDxfId="99"/>
+    <tableColumn id="7" name="Dodatkowy opis" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela26" displayName="Tabela26" ref="A1:G18" totalsRowShown="0" headerRowDxfId="60" headerRowBorderDxfId="59" tableBorderDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela26" displayName="Tabela26" ref="A1:G18" totalsRowShown="0" headerRowDxfId="97" headerRowBorderDxfId="96" tableBorderDxfId="95">
   <autoFilter ref="A1:G18"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Nazwa TC" dataDxfId="57"/>
-    <tableColumn id="2" name="TC ID" dataDxfId="56"/>
-    <tableColumn id="3" name="Numer kroku" dataDxfId="55"/>
-    <tableColumn id="4" name="Czynność" dataDxfId="54"/>
-    <tableColumn id="5" name="Oczekiwany rezultat" dataDxfId="53"/>
-    <tableColumn id="6" name="Aktualny rezultat" dataDxfId="52" dataCellStyle="Dobry"/>
-    <tableColumn id="7" name="Dodatkowy opis" dataDxfId="51"/>
+    <tableColumn id="1" name="Nazwa TC" dataDxfId="94"/>
+    <tableColumn id="2" name="TC ID" dataDxfId="93"/>
+    <tableColumn id="3" name="Numer kroku" dataDxfId="92"/>
+    <tableColumn id="4" name="Czynność" dataDxfId="91"/>
+    <tableColumn id="5" name="Oczekiwany rezultat" dataDxfId="90"/>
+    <tableColumn id="6" name="Aktualny rezultat" dataDxfId="89" dataCellStyle="Dobry"/>
+    <tableColumn id="7" name="Dodatkowy opis" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela27" displayName="Tabela27" ref="A1:G15" totalsRowShown="0" headerRowDxfId="50" headerRowBorderDxfId="49" tableBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela27" displayName="Tabela27" ref="A1:G15" totalsRowShown="0" headerRowDxfId="87" headerRowBorderDxfId="86" tableBorderDxfId="85">
   <autoFilter ref="A1:G15"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Nazwa TC" dataDxfId="47"/>
-    <tableColumn id="2" name="TC ID" dataDxfId="46"/>
-    <tableColumn id="3" name="Numer kroku" dataDxfId="45"/>
-    <tableColumn id="4" name="Czynność" dataDxfId="44"/>
-    <tableColumn id="5" name="Oczekiwany rezultat" dataDxfId="43"/>
-    <tableColumn id="6" name="Aktualny rezultat" dataDxfId="42" dataCellStyle="Dobry"/>
-    <tableColumn id="7" name="Dodatkowy opis" dataDxfId="41"/>
+    <tableColumn id="1" name="Nazwa TC" dataDxfId="84"/>
+    <tableColumn id="2" name="TC ID" dataDxfId="83"/>
+    <tableColumn id="3" name="Numer kroku" dataDxfId="82"/>
+    <tableColumn id="4" name="Czynność" dataDxfId="81"/>
+    <tableColumn id="5" name="Oczekiwany rezultat" dataDxfId="80"/>
+    <tableColumn id="6" name="Aktualny rezultat" dataDxfId="79" dataCellStyle="Dobry"/>
+    <tableColumn id="7" name="Dodatkowy opis" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:G21" totalsRowShown="0" headerRowDxfId="40" headerRowBorderDxfId="39" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:G21" totalsRowShown="0" headerRowDxfId="77" headerRowBorderDxfId="76" tableBorderDxfId="75">
   <autoFilter ref="A1:G21"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Nazwa TC" dataDxfId="37"/>
-    <tableColumn id="2" name="TC ID" dataDxfId="36"/>
-    <tableColumn id="3" name="Numer kroku" dataDxfId="35"/>
-    <tableColumn id="4" name="Czynność" dataDxfId="34"/>
-    <tableColumn id="5" name="Oczekiwany rezultat" dataDxfId="33"/>
-    <tableColumn id="6" name="Aktualny rezultat" dataDxfId="32" dataCellStyle="Dobry"/>
-    <tableColumn id="7" name="Dodatkowy opis" dataDxfId="31"/>
+    <tableColumn id="1" name="Nazwa TC" dataDxfId="74"/>
+    <tableColumn id="2" name="TC ID" dataDxfId="73"/>
+    <tableColumn id="3" name="Numer kroku" dataDxfId="72"/>
+    <tableColumn id="4" name="Czynność" dataDxfId="71"/>
+    <tableColumn id="5" name="Oczekiwany rezultat" dataDxfId="70"/>
+    <tableColumn id="6" name="Aktualny rezultat" dataDxfId="69" dataCellStyle="Dobry"/>
+    <tableColumn id="7" name="Dodatkowy opis" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:G35" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:G35" totalsRowShown="0" headerRowDxfId="67" dataDxfId="65" headerRowBorderDxfId="66" tableBorderDxfId="64">
   <autoFilter ref="A1:G35"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Nazwa TC" dataDxfId="26"/>
-    <tableColumn id="2" name="TC ID" dataDxfId="25"/>
-    <tableColumn id="3" name="Numer kroku" dataDxfId="24"/>
-    <tableColumn id="4" name="Czynność" dataDxfId="23"/>
-    <tableColumn id="5" name="Oczekiwany rezultat" dataDxfId="22"/>
-    <tableColumn id="6" name="Aktualny rezultat" dataDxfId="21" dataCellStyle="Zły"/>
-    <tableColumn id="7" name="Dodatkowy opis" dataDxfId="20"/>
+    <tableColumn id="1" name="Nazwa TC" dataDxfId="63"/>
+    <tableColumn id="2" name="TC ID" dataDxfId="62"/>
+    <tableColumn id="3" name="Numer kroku" dataDxfId="61"/>
+    <tableColumn id="4" name="Czynność" dataDxfId="60"/>
+    <tableColumn id="5" name="Oczekiwany rezultat" dataDxfId="59"/>
+    <tableColumn id="6" name="Aktualny rezultat" dataDxfId="58" dataCellStyle="Zły"/>
+    <tableColumn id="7" name="Dodatkowy opis" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:G18" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:G18" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53">
   <autoFilter ref="A1:G18"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Nazwa TC" dataDxfId="15"/>
-    <tableColumn id="2" name="TC ID" dataDxfId="14"/>
-    <tableColumn id="3" name="Numer kroku" dataDxfId="13"/>
-    <tableColumn id="4" name="Czynność" dataDxfId="12"/>
-    <tableColumn id="5" name="Oczekiwany rezultat" dataDxfId="11"/>
-    <tableColumn id="6" name="Aktualny rezultat" dataDxfId="10" dataCellStyle="Dobry"/>
-    <tableColumn id="7" name="Dodatkowy opis" dataDxfId="9"/>
+    <tableColumn id="1" name="Nazwa TC" dataDxfId="52"/>
+    <tableColumn id="2" name="TC ID" dataDxfId="51"/>
+    <tableColumn id="3" name="Numer kroku" dataDxfId="50"/>
+    <tableColumn id="4" name="Czynność" dataDxfId="49"/>
+    <tableColumn id="5" name="Oczekiwany rezultat" dataDxfId="48"/>
+    <tableColumn id="6" name="Aktualny rezultat" dataDxfId="47" dataCellStyle="Dobry"/>
+    <tableColumn id="7" name="Dodatkowy opis" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabela8" displayName="Tabela8" ref="A1:G8" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="8">
-  <autoFilter ref="A1:G8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabela8" displayName="Tabela8" ref="A1:G15" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="44">
+  <autoFilter ref="A1:G15"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Nazwa TC" dataDxfId="6"/>
-    <tableColumn id="2" name="TC ID" dataDxfId="5"/>
-    <tableColumn id="3" name="Numer kroku" dataDxfId="4"/>
-    <tableColumn id="4" name="Czynność" dataDxfId="3"/>
-    <tableColumn id="5" name="Oczekiwany rezultat" dataDxfId="2"/>
-    <tableColumn id="6" name="Aktualny rezultat" dataDxfId="1" dataCellStyle="Dobry"/>
-    <tableColumn id="7" name="Dodatkowy opis" dataDxfId="0"/>
+    <tableColumn id="1" name="Nazwa TC" dataDxfId="43"/>
+    <tableColumn id="2" name="TC ID" dataDxfId="42"/>
+    <tableColumn id="3" name="Numer kroku" dataDxfId="41"/>
+    <tableColumn id="4" name="Czynność" dataDxfId="40"/>
+    <tableColumn id="5" name="Oczekiwany rezultat" dataDxfId="39"/>
+    <tableColumn id="6" name="Aktualny rezultat" dataDxfId="38" dataCellStyle="Dobry"/>
+    <tableColumn id="7" name="Dodatkowy opis" dataDxfId="37"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabela9" displayName="Tabela9" ref="A1:G17" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="36">
+  <autoFilter ref="A1:G17"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Nazwa TC" dataDxfId="29"/>
+    <tableColumn id="2" name="TC ID" dataDxfId="28"/>
+    <tableColumn id="3" name="Numer kroku" dataDxfId="34"/>
+    <tableColumn id="4" name="Czynność" dataDxfId="33"/>
+    <tableColumn id="5" name="Oczekiwany rezultat" dataDxfId="32"/>
+    <tableColumn id="6" name="Aktualny rezultat" dataDxfId="31" dataCellStyle="Dobry"/>
+    <tableColumn id="7" name="Dodatkowy opis" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4399,10 +5481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4456,11 +5538,11 @@
         <v>8</v>
       </c>
       <c r="F2" s="76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
       <c r="C3" s="7">
@@ -4473,11 +5555,9 @@
         <v>12</v>
       </c>
       <c r="F3" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="134" t="s">
-        <v>81</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G3" s="183"/>
     </row>
     <row r="4" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="29"/>
@@ -4492,11 +5572,11 @@
         <v>14</v>
       </c>
       <c r="F4" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A5" s="29"/>
       <c r="B5" s="30"/>
       <c r="C5" s="7">
@@ -4506,10 +5586,10 @@
         <v>15</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="F5" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5" s="9"/>
     </row>
@@ -4520,13 +5600,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" s="9"/>
     </row>
@@ -4537,34 +5617,34 @@
         <v>6</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="F7" s="78" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="41">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="F8" s="76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -4575,13 +5655,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G9" s="9"/>
     </row>
@@ -4592,13 +5672,13 @@
         <v>3</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="9"/>
     </row>
@@ -4609,13 +5689,13 @@
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11" s="9"/>
     </row>
@@ -4626,13 +5706,13 @@
         <v>5</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G12" s="9"/>
     </row>
@@ -4643,13 +5723,13 @@
         <v>6</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" s="9"/>
     </row>
@@ -4660,13 +5740,13 @@
         <v>7</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G14" s="9"/>
     </row>
@@ -4677,38 +5757,38 @@
         <v>8</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>31</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>32</v>
       </c>
       <c r="C16" s="41">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" s="76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A17" s="29"/>
       <c r="B17" s="30"/>
       <c r="C17" s="42">
@@ -4718,10 +5798,10 @@
         <v>15</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="F17" s="77" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G17" s="9"/>
     </row>
@@ -4732,22 +5812,22 @@
         <v>3</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F18" s="79" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>98</v>
+      <c r="A19" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>94</v>
       </c>
       <c r="C19" s="23">
         <v>1</v>
@@ -4759,32 +5839,30 @@
         <v>8</v>
       </c>
       <c r="F19" s="80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G19" s="26"/>
     </row>
-    <row r="20" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="178"/>
-      <c r="B20" s="179"/>
-      <c r="C20" s="168">
+    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="173"/>
+      <c r="B20" s="174"/>
+      <c r="C20" s="167">
         <v>2</v>
       </c>
-      <c r="D20" s="171" t="s">
+      <c r="D20" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="171" t="s">
+      <c r="E20" s="170" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="134" t="s">
-        <v>81</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G20" s="157"/>
     </row>
     <row r="21" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="153"/>
       <c r="C21" s="13">
         <v>3</v>
       </c>
@@ -4795,1546 +5873,2604 @@
         <v>14</v>
       </c>
       <c r="F21" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="173"/>
+      <c r="B22" s="174"/>
+      <c r="C22" s="167">
+        <v>4</v>
+      </c>
+      <c r="D22" s="170" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="170" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="175"/>
+    </row>
+    <row r="23" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="57"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="13">
+        <v>5</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="141"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="139">
+        <v>6</v>
+      </c>
+      <c r="D24" s="140" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="140" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="130"/>
+    </row>
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="57"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="13">
+        <v>7</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="141"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="139">
+        <v>8</v>
+      </c>
+      <c r="D26" s="140" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="140" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="130"/>
+    </row>
+    <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="57"/>
+      <c r="B27" s="153"/>
+      <c r="C27" s="13">
+        <v>9</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="141"/>
+      <c r="B28" s="142"/>
+      <c r="C28" s="139">
+        <v>10</v>
+      </c>
+      <c r="D28" s="140" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="140" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="130"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="143"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="20">
+        <v>11</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="156" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="160" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="161" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="158">
+        <v>1</v>
+      </c>
+      <c r="D30" s="148" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="148" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="159"/>
+    </row>
+    <row r="31" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="57"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="13">
+        <v>2</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="141"/>
+      <c r="B32" s="142"/>
+      <c r="C32" s="128">
+        <v>3</v>
+      </c>
+      <c r="D32" s="140" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="140" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="130"/>
+    </row>
+    <row r="33" spans="1:7" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="143"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="20">
+        <v>4</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="116" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="117" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="134">
+        <v>1</v>
+      </c>
+      <c r="D34" s="148" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="148" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="120"/>
+    </row>
+    <row r="35" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="54"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="137">
+        <v>2</v>
+      </c>
+      <c r="D35" s="138" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="138" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="56"/>
+    </row>
+    <row r="36" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="160" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="161" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="158">
+        <v>1</v>
+      </c>
+      <c r="D36" s="148" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="148" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="159"/>
+    </row>
+    <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="268"/>
+      <c r="B37" s="269"/>
+      <c r="C37" s="270">
+        <v>2</v>
+      </c>
+      <c r="D37" s="256" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="256" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" s="274"/>
+    </row>
+    <row r="38" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="141"/>
+      <c r="B38" s="142"/>
+      <c r="C38" s="139">
+        <v>3</v>
+      </c>
+      <c r="D38" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="140" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="130"/>
+    </row>
+    <row r="39" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="268"/>
+      <c r="B39" s="269"/>
+      <c r="C39" s="270">
+        <v>4</v>
+      </c>
+      <c r="D39" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="1:7" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="175"/>
-      <c r="B22" s="176"/>
-      <c r="C22" s="177">
+      <c r="E39" s="256" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" s="273"/>
+    </row>
+    <row r="40" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="141"/>
+      <c r="B40" s="142"/>
+      <c r="C40" s="139">
+        <v>5</v>
+      </c>
+      <c r="D40" s="129" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="129" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" s="130"/>
+    </row>
+    <row r="41" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="57"/>
+      <c r="B41" s="153"/>
+      <c r="C41" s="13">
+        <v>6</v>
+      </c>
+      <c r="D41" s="275" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="275" t="s">
+        <v>131</v>
+      </c>
+      <c r="F41" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" s="16"/>
+    </row>
+    <row r="42" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="141"/>
+      <c r="B42" s="142"/>
+      <c r="C42" s="139">
+        <v>7</v>
+      </c>
+      <c r="D42" s="140" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" s="140" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" s="130"/>
+    </row>
+    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="57"/>
+      <c r="B43" s="153"/>
+      <c r="C43" s="13">
+        <v>8</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" s="162" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="141"/>
+      <c r="B44" s="142"/>
+      <c r="C44" s="139">
+        <v>9</v>
+      </c>
+      <c r="D44" s="140" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="F44" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" s="130"/>
+    </row>
+    <row r="45" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="143"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="20">
+        <v>10</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45" s="156" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45" s="22"/>
+    </row>
+    <row r="46" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="160" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" s="161" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="158">
+        <v>1</v>
+      </c>
+      <c r="D46" s="148" t="s">
+        <v>153</v>
+      </c>
+      <c r="E46" s="148" t="s">
+        <v>154</v>
+      </c>
+      <c r="F46" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46" s="159"/>
+    </row>
+    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="57"/>
+      <c r="B47" s="153"/>
+      <c r="C47" s="13">
+        <v>2</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F47" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" s="16"/>
+    </row>
+    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="141"/>
+      <c r="B48" s="142"/>
+      <c r="C48" s="139">
+        <v>3</v>
+      </c>
+      <c r="D48" s="140" t="s">
+        <v>142</v>
+      </c>
+      <c r="E48" s="140" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" s="130"/>
+    </row>
+    <row r="49" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="57"/>
+      <c r="B49" s="153"/>
+      <c r="C49" s="137">
         <v>4</v>
       </c>
-      <c r="D22" s="172" t="s">
-        <v>173</v>
-      </c>
-      <c r="E22" s="172" t="s">
+      <c r="D49" s="138" t="s">
+        <v>157</v>
+      </c>
+      <c r="E49" s="138" t="s">
+        <v>146</v>
+      </c>
+      <c r="F49" s="165" t="s">
+        <v>158</v>
+      </c>
+      <c r="G49" s="56"/>
+    </row>
+    <row r="50" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="166" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="231" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="158">
+        <v>1</v>
+      </c>
+      <c r="D50" s="148" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="148" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50" s="159"/>
+    </row>
+    <row r="51" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="271"/>
+      <c r="B51" s="272"/>
+      <c r="C51" s="270">
+        <v>2</v>
+      </c>
+      <c r="D51" s="256" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="256" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" s="276"/>
+    </row>
+    <row r="52" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="121"/>
+      <c r="B52" s="122"/>
+      <c r="C52" s="139">
+        <v>3</v>
+      </c>
+      <c r="D52" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="140" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52" s="130"/>
+    </row>
+    <row r="53" spans="1:7" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="277"/>
+      <c r="B53" s="278"/>
+      <c r="C53" s="279">
+        <v>4</v>
+      </c>
+      <c r="D53" s="280" t="s">
+        <v>161</v>
+      </c>
+      <c r="E53" s="280" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" s="281"/>
+    </row>
+    <row r="54" spans="1:7" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="141" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="284" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="285">
+        <v>1</v>
+      </c>
+      <c r="D54" s="286" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="174"/>
-    </row>
-    <row r="23" spans="1:7" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="57" t="s">
+      <c r="E54" s="248" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="59">
-        <v>1</v>
-      </c>
-      <c r="D23" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="173" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="131" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="61"/>
-    </row>
-    <row r="24" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="116"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="118">
-        <v>2</v>
-      </c>
-      <c r="D24" s="119" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="169" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="120"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="64">
-        <v>1</v>
-      </c>
-      <c r="D25" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="133" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="66"/>
-    </row>
-    <row r="26" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="142"/>
-      <c r="B26" s="143"/>
-      <c r="C26" s="140">
-        <v>2</v>
-      </c>
-      <c r="D26" s="141" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="141" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="130"/>
-    </row>
-    <row r="27" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="144"/>
-      <c r="B27" s="145"/>
-      <c r="C27" s="20">
-        <v>3</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="79" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="22"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="64">
-        <v>1</v>
-      </c>
-      <c r="D28" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="133" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" s="66"/>
-    </row>
-    <row r="29" spans="1:7" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="123"/>
-      <c r="B29" s="124"/>
-      <c r="C29" s="125">
-        <v>2</v>
-      </c>
-      <c r="D29" s="126" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="126" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" s="127"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="64">
-        <v>1</v>
-      </c>
-      <c r="D30" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" s="133" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="66"/>
-    </row>
-    <row r="31" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="121"/>
-      <c r="B31" s="122"/>
-      <c r="C31" s="128">
-        <v>2</v>
-      </c>
-      <c r="D31" s="129" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="129" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="130"/>
-    </row>
-    <row r="32" spans="1:7" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="20">
-        <v>3</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" s="22"/>
-    </row>
-    <row r="33" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="116" t="s">
-        <v>85</v>
-      </c>
-      <c r="B33" s="117" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="135">
-        <v>1</v>
-      </c>
-      <c r="D33" s="169" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="169" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="146" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" s="120"/>
-    </row>
-    <row r="34" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="54"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="138">
-        <v>2</v>
-      </c>
-      <c r="D34" s="139" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="139" t="s">
-        <v>89</v>
-      </c>
-      <c r="F34" s="146" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" s="56"/>
-    </row>
-    <row r="35" spans="1:7" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="116"/>
-      <c r="B35" s="117"/>
-      <c r="C35" s="135">
-        <v>3</v>
-      </c>
-      <c r="D35" s="169" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" s="169" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" s="146" t="s">
-        <v>37</v>
-      </c>
-      <c r="G35" s="120"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="64">
-        <v>1</v>
-      </c>
-      <c r="D36" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" s="133" t="s">
-        <v>37</v>
-      </c>
-      <c r="G36" s="66"/>
-    </row>
-    <row r="37" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="116"/>
-      <c r="B37" s="117"/>
-      <c r="C37" s="135">
-        <v>2</v>
-      </c>
-      <c r="D37" s="169" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="169" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37" s="146" t="s">
-        <v>37</v>
-      </c>
-      <c r="G37" s="120"/>
-    </row>
-    <row r="38" spans="1:7" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="54"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="138">
-        <v>3</v>
-      </c>
-      <c r="D38" s="139" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="139" t="s">
-        <v>88</v>
-      </c>
-      <c r="F38" s="166" t="s">
-        <v>94</v>
-      </c>
-      <c r="G38" s="56"/>
-    </row>
-    <row r="39" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="B39" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="23">
-        <v>1</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" s="26"/>
-    </row>
-    <row r="40" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="180"/>
-      <c r="B40" s="181"/>
-      <c r="C40" s="168">
-        <v>2</v>
-      </c>
-      <c r="D40" s="171" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="171" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="G40" s="158"/>
-    </row>
-    <row r="41" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="57"/>
-      <c r="B41" s="154"/>
-      <c r="C41" s="13">
-        <v>3</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="G41" s="16"/>
-    </row>
-    <row r="42" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="180"/>
-      <c r="B42" s="181"/>
-      <c r="C42" s="168">
-        <v>4</v>
-      </c>
-      <c r="D42" s="171" t="s">
-        <v>119</v>
-      </c>
-      <c r="E42" s="171" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="G42" s="182"/>
-    </row>
-    <row r="43" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="57"/>
-      <c r="B43" s="154"/>
-      <c r="C43" s="13">
-        <v>5</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F43" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="G43" s="16"/>
-    </row>
-    <row r="44" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="142"/>
-      <c r="B44" s="143"/>
-      <c r="C44" s="140">
-        <v>6</v>
-      </c>
-      <c r="D44" s="141" t="s">
-        <v>121</v>
-      </c>
-      <c r="E44" s="141" t="s">
-        <v>122</v>
-      </c>
-      <c r="F44" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="G44" s="130"/>
-    </row>
-    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="57"/>
-      <c r="B45" s="154"/>
-      <c r="C45" s="13">
-        <v>7</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F45" s="137" t="s">
-        <v>37</v>
-      </c>
-      <c r="G45" s="16"/>
-    </row>
-    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="57"/>
-      <c r="B46" s="154"/>
-      <c r="C46" s="13">
-        <v>8</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F46" s="137" t="s">
-        <v>37</v>
-      </c>
-      <c r="G46" s="16"/>
-    </row>
-    <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="142"/>
-      <c r="B47" s="143"/>
-      <c r="C47" s="140">
-        <v>9</v>
-      </c>
-      <c r="D47" s="141" t="s">
-        <v>124</v>
-      </c>
-      <c r="E47" s="141" t="s">
-        <v>125</v>
-      </c>
-      <c r="F47" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="G47" s="130"/>
-    </row>
-    <row r="48" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="57"/>
-      <c r="B48" s="154"/>
-      <c r="C48" s="13">
-        <v>10</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F48" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="G48" s="16"/>
-    </row>
-    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="144"/>
-      <c r="B49" s="145"/>
-      <c r="C49" s="20">
-        <v>11</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="F49" s="157" t="s">
-        <v>37</v>
-      </c>
-      <c r="G49" s="22"/>
-    </row>
-    <row r="50" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="161" t="s">
-        <v>130</v>
-      </c>
-      <c r="B50" s="162" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" s="159">
-        <v>1</v>
-      </c>
-      <c r="D50" s="149" t="s">
-        <v>131</v>
-      </c>
-      <c r="E50" s="149" t="s">
-        <v>129</v>
-      </c>
-      <c r="F50" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="G50" s="160"/>
-    </row>
-    <row r="51" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="57"/>
-      <c r="B51" s="154"/>
-      <c r="C51" s="13">
-        <v>2</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F51" s="137" t="s">
-        <v>37</v>
-      </c>
-      <c r="G51" s="16"/>
-    </row>
-    <row r="52" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="142"/>
-      <c r="B52" s="143"/>
-      <c r="C52" s="128">
-        <v>3</v>
-      </c>
-      <c r="D52" s="141" t="s">
-        <v>90</v>
-      </c>
-      <c r="E52" s="141" t="s">
-        <v>88</v>
-      </c>
-      <c r="F52" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="G52" s="130"/>
-    </row>
-    <row r="53" spans="1:7" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="144"/>
-      <c r="B53" s="145"/>
-      <c r="C53" s="20">
-        <v>4</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F53" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="G53" s="22"/>
-    </row>
-    <row r="54" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="116" t="s">
-        <v>135</v>
-      </c>
-      <c r="B54" s="117" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54" s="135">
-        <v>1</v>
-      </c>
-      <c r="D54" s="149" t="s">
-        <v>131</v>
-      </c>
-      <c r="E54" s="149" t="s">
-        <v>129</v>
-      </c>
-      <c r="F54" s="146" t="s">
-        <v>37</v>
-      </c>
-      <c r="G54" s="120"/>
+      <c r="F54" s="131" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" s="287"/>
     </row>
     <row r="55" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="54"/>
       <c r="B55" s="55"/>
-      <c r="C55" s="138">
+      <c r="C55" s="282">
         <v>2</v>
       </c>
-      <c r="D55" s="139" t="s">
-        <v>136</v>
-      </c>
-      <c r="E55" s="139" t="s">
-        <v>137</v>
-      </c>
-      <c r="F55" s="146" t="s">
-        <v>37</v>
+      <c r="D55" s="283" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" s="138" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" s="132" t="s">
+        <v>35</v>
       </c>
       <c r="G55" s="56"/>
     </row>
-    <row r="56" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="B56" s="69" t="s">
-        <v>110</v>
-      </c>
-      <c r="C56" s="23">
+    <row r="56" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="160" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="161" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="288">
         <v>1</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D56" s="252" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" s="252" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="133" t="s">
+        <v>35</v>
+      </c>
+      <c r="G56" s="289"/>
+    </row>
+    <row r="57" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="57"/>
+      <c r="B57" s="153"/>
+      <c r="C57" s="13">
+        <v>2</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F57" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" s="16"/>
+    </row>
+    <row r="58" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="290"/>
+      <c r="B58" s="291"/>
+      <c r="C58" s="125">
+        <v>3</v>
+      </c>
+      <c r="D58" s="126" t="s">
+        <v>78</v>
+      </c>
+      <c r="E58" s="126" t="s">
+        <v>79</v>
+      </c>
+      <c r="F58" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="G58" s="127"/>
+    </row>
+    <row r="59" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59" s="64">
+        <v>1</v>
+      </c>
+      <c r="D59" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" s="133" t="s">
+        <v>35</v>
+      </c>
+      <c r="G59" s="66"/>
+    </row>
+    <row r="60" spans="1:7" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="123"/>
+      <c r="B60" s="124"/>
+      <c r="C60" s="125">
+        <v>2</v>
+      </c>
+      <c r="D60" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" s="126" t="s">
+        <v>77</v>
+      </c>
+      <c r="F60" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60" s="127"/>
+    </row>
+    <row r="61" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" s="64">
+        <v>1</v>
+      </c>
+      <c r="D61" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="133" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" s="66"/>
+    </row>
+    <row r="62" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="121"/>
+      <c r="B62" s="122"/>
+      <c r="C62" s="128">
+        <v>2</v>
+      </c>
+      <c r="D62" s="129" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="129" t="s">
+        <v>47</v>
+      </c>
+      <c r="F62" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G62" s="130"/>
+    </row>
+    <row r="63" spans="1:7" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="39"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="20">
+        <v>3</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F63" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63" s="22"/>
+    </row>
+    <row r="64" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="117" t="s">
+        <v>182</v>
+      </c>
+      <c r="C64" s="134">
+        <v>1</v>
+      </c>
+      <c r="D64" s="168" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64" s="168" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" s="120"/>
+    </row>
+    <row r="65" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="54"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="137">
+        <v>2</v>
+      </c>
+      <c r="D65" s="138" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="138" t="s">
+        <v>85</v>
+      </c>
+      <c r="F65" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" s="56"/>
+    </row>
+    <row r="66" spans="1:7" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="116"/>
+      <c r="B66" s="117"/>
+      <c r="C66" s="134">
+        <v>3</v>
+      </c>
+      <c r="D66" s="168" t="s">
+        <v>86</v>
+      </c>
+      <c r="E66" s="168" t="s">
+        <v>84</v>
+      </c>
+      <c r="F66" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="G66" s="120"/>
+    </row>
+    <row r="67" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="B67" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="C67" s="64">
+        <v>1</v>
+      </c>
+      <c r="D67" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="E67" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" s="133" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" s="66"/>
+    </row>
+    <row r="68" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="116"/>
+      <c r="B68" s="117"/>
+      <c r="C68" s="134">
+        <v>2</v>
+      </c>
+      <c r="D68" s="168" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" s="168" t="s">
+        <v>89</v>
+      </c>
+      <c r="F68" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" s="120"/>
+    </row>
+    <row r="69" spans="1:7" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="54"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="137">
+        <v>3</v>
+      </c>
+      <c r="D69" s="138" t="s">
+        <v>86</v>
+      </c>
+      <c r="E69" s="138" t="s">
+        <v>84</v>
+      </c>
+      <c r="F69" s="165" t="s">
+        <v>90</v>
+      </c>
+      <c r="G69" s="56"/>
+    </row>
+    <row r="70" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="166" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" s="179" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" s="158">
+        <v>1</v>
+      </c>
+      <c r="D70" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="24" t="s">
+      <c r="E70" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="F56" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="G56" s="26"/>
-    </row>
-    <row r="57" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A57" s="35"/>
-      <c r="B57" s="70"/>
-      <c r="C57" s="17">
+      <c r="F70" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="G70" s="180"/>
+    </row>
+    <row r="71" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="271"/>
+      <c r="B71" s="292"/>
+      <c r="C71" s="270">
         <v>2</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D71" s="256" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71" s="256" t="s">
+        <v>69</v>
+      </c>
+      <c r="F71" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G71" s="293"/>
+    </row>
+    <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="121"/>
+      <c r="B72" s="181"/>
+      <c r="C72" s="139">
+        <v>3</v>
+      </c>
+      <c r="D72" s="140" t="s">
+        <v>72</v>
+      </c>
+      <c r="E72" s="140" t="s">
+        <v>73</v>
+      </c>
+      <c r="F72" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G72" s="182"/>
+    </row>
+    <row r="73" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="271"/>
+      <c r="B73" s="272"/>
+      <c r="C73" s="270">
+        <v>4</v>
+      </c>
+      <c r="D73" s="256" t="s">
+        <v>70</v>
+      </c>
+      <c r="E73" s="256" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G73" s="293"/>
+    </row>
+    <row r="74" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="121"/>
+      <c r="B74" s="122"/>
+      <c r="C74" s="139">
+        <v>5</v>
+      </c>
+      <c r="D74" s="140" t="s">
+        <v>74</v>
+      </c>
+      <c r="E74" s="140" t="s">
+        <v>69</v>
+      </c>
+      <c r="F74" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G74" s="182"/>
+    </row>
+    <row r="75" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="294"/>
+      <c r="B75" s="295"/>
+      <c r="C75" s="296">
+        <v>6</v>
+      </c>
+      <c r="D75" s="297" t="s">
+        <v>72</v>
+      </c>
+      <c r="E75" s="297" t="s">
+        <v>73</v>
+      </c>
+      <c r="F75" s="135" t="s">
+        <v>35</v>
+      </c>
+      <c r="G75" s="298"/>
+    </row>
+    <row r="76" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="299" t="s">
+        <v>144</v>
+      </c>
+      <c r="B76" s="300" t="s">
+        <v>104</v>
+      </c>
+      <c r="C76" s="301">
+        <v>1</v>
+      </c>
+      <c r="D76" s="148" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="148" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="G76" s="302"/>
+    </row>
+    <row r="77" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="271"/>
+      <c r="B77" s="305"/>
+      <c r="C77" s="270">
+        <v>2</v>
+      </c>
+      <c r="D77" s="256" t="s">
         <v>11</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="E77" s="256" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="G57" s="134" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="37"/>
-      <c r="B58" s="71"/>
-      <c r="C58" s="13">
+      <c r="F77" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G77" s="293"/>
+    </row>
+    <row r="78" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="172"/>
+      <c r="B78" s="303"/>
+      <c r="C78" s="167">
         <v>3</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D78" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E78" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="F58" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="G58" s="16"/>
-    </row>
-    <row r="59" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="67"/>
-      <c r="B59" s="68"/>
-      <c r="C59" s="17">
+      <c r="F78" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G78" s="304"/>
+    </row>
+    <row r="79" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="271"/>
+      <c r="B79" s="305"/>
+      <c r="C79" s="270">
         <v>4</v>
       </c>
-      <c r="D59" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E59" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F59" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="G59" s="19"/>
-    </row>
-    <row r="60" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="29"/>
-      <c r="B60" s="84"/>
-      <c r="C60" s="7">
+      <c r="D79" s="256" t="s">
+        <v>161</v>
+      </c>
+      <c r="E79" s="256" t="s">
+        <v>38</v>
+      </c>
+      <c r="F79" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G79" s="293"/>
+    </row>
+    <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="47"/>
+      <c r="B80" s="151"/>
+      <c r="C80" s="45">
         <v>5</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F60" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="29"/>
-      <c r="B61" s="84"/>
-      <c r="C61" s="73">
-        <v>6</v>
-      </c>
-      <c r="D61" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="E61" s="165" t="s">
-        <v>95</v>
-      </c>
-      <c r="F61" s="83" t="s">
-        <v>96</v>
-      </c>
-      <c r="G61" s="74"/>
-    </row>
-    <row r="62" spans="1:7" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="B62" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="C62" s="88">
+      <c r="D80" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="E80" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="F80" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="G80" s="106"/>
+    </row>
+    <row r="81" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" s="150" t="s">
+        <v>105</v>
+      </c>
+      <c r="C81" s="177">
         <v>1</v>
       </c>
-      <c r="D62" s="89" t="s">
-        <v>58</v>
-      </c>
-      <c r="E62" s="89" t="s">
-        <v>59</v>
-      </c>
-      <c r="F62" s="147" t="s">
-        <v>37</v>
-      </c>
-      <c r="G62" s="90"/>
-    </row>
-    <row r="63" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="C63" s="73">
-        <v>1</v>
-      </c>
-      <c r="D63" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="E63" s="165" t="s">
-        <v>59</v>
-      </c>
-      <c r="F63" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="G63" s="74"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="72"/>
-      <c r="B64" s="85"/>
-      <c r="C64" s="73">
-        <v>2</v>
-      </c>
-      <c r="D64" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="E64" s="165" t="s">
-        <v>63</v>
-      </c>
-      <c r="F64" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="G64" s="74"/>
-    </row>
-    <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="72"/>
-      <c r="B65" s="85"/>
-      <c r="C65" s="73">
-        <v>3</v>
-      </c>
-      <c r="D65" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="E65" s="165" t="s">
-        <v>63</v>
-      </c>
-      <c r="F65" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="G65" s="74"/>
-    </row>
-    <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="72"/>
-      <c r="B66" s="85"/>
-      <c r="C66" s="73">
-        <v>4</v>
-      </c>
-      <c r="D66" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="E66" s="165" t="s">
-        <v>63</v>
-      </c>
-      <c r="F66" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="G66" s="74"/>
-    </row>
-    <row r="67" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="72"/>
-      <c r="B67" s="85"/>
-      <c r="C67" s="73">
-        <v>5</v>
-      </c>
-      <c r="D67" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="E67" s="165" t="s">
-        <v>63</v>
-      </c>
-      <c r="F67" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="G67" s="74"/>
-    </row>
-    <row r="68" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="72"/>
-      <c r="B68" s="85"/>
-      <c r="C68" s="73">
-        <v>6</v>
-      </c>
-      <c r="D68" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="E68" s="165" t="s">
-        <v>63</v>
-      </c>
-      <c r="F68" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="G68" s="74"/>
-    </row>
-    <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="72"/>
-      <c r="B69" s="85"/>
-      <c r="C69" s="73">
+      <c r="D81" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="D69" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="E69" s="165" t="s">
-        <v>63</v>
-      </c>
-      <c r="F69" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="G69" s="74"/>
-    </row>
-    <row r="70" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="72"/>
-      <c r="B70" s="85"/>
-      <c r="C70" s="73">
+      <c r="E81" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="E70" s="165" t="s">
-        <v>63</v>
-      </c>
-      <c r="F70" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="G70" s="74"/>
-    </row>
-    <row r="71" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A71" s="72"/>
-      <c r="B71" s="85"/>
-      <c r="C71" s="164">
-        <v>9</v>
-      </c>
-      <c r="D71" s="165" t="s">
-        <v>163</v>
-      </c>
-      <c r="E71" s="165" t="s">
-        <v>159</v>
-      </c>
-      <c r="F71" s="166" t="s">
-        <v>160</v>
-      </c>
-      <c r="G71" s="74"/>
-    </row>
-    <row r="72" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="72"/>
-      <c r="B72" s="85"/>
-      <c r="C72" s="164">
-        <v>10</v>
-      </c>
-      <c r="D72" s="165" t="s">
-        <v>162</v>
-      </c>
-      <c r="E72" s="165" t="s">
-        <v>161</v>
-      </c>
-      <c r="F72" s="166" t="s">
-        <v>164</v>
-      </c>
-      <c r="G72" s="74"/>
-    </row>
-    <row r="73" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="167" t="s">
-        <v>117</v>
-      </c>
-      <c r="B73" s="187" t="s">
-        <v>112</v>
-      </c>
-      <c r="C73" s="159">
-        <v>1</v>
-      </c>
-      <c r="D73" s="149" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" s="149" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="G73" s="188"/>
-    </row>
-    <row r="74" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A74" s="35"/>
-      <c r="B74" s="70"/>
-      <c r="C74" s="17">
-        <v>2</v>
-      </c>
-      <c r="D74" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E74" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F74" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="G74" s="99"/>
-    </row>
-    <row r="75" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="121"/>
-      <c r="B75" s="189"/>
-      <c r="C75" s="140">
-        <v>3</v>
-      </c>
-      <c r="D75" s="141" t="s">
-        <v>75</v>
-      </c>
-      <c r="E75" s="141" t="s">
-        <v>76</v>
-      </c>
-      <c r="F75" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="G75" s="190"/>
-    </row>
-    <row r="76" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A76" s="35"/>
-      <c r="B76" s="36"/>
-      <c r="C76" s="17">
-        <v>4</v>
-      </c>
-      <c r="D76" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="G76" s="99"/>
-    </row>
-    <row r="77" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="121"/>
-      <c r="B77" s="122"/>
-      <c r="C77" s="140">
-        <v>5</v>
-      </c>
-      <c r="D77" s="141" t="s">
-        <v>77</v>
-      </c>
-      <c r="E77" s="141" t="s">
-        <v>72</v>
-      </c>
-      <c r="F77" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="G77" s="190"/>
-    </row>
-    <row r="78" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="67"/>
-      <c r="B78" s="68"/>
-      <c r="C78" s="184">
-        <v>6</v>
-      </c>
-      <c r="D78" s="112" t="s">
-        <v>75</v>
-      </c>
-      <c r="E78" s="112" t="s">
-        <v>76</v>
-      </c>
-      <c r="F78" s="136" t="s">
-        <v>37</v>
-      </c>
-      <c r="G78" s="113"/>
-    </row>
-    <row r="79" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="183" t="s">
-        <v>154</v>
-      </c>
-      <c r="B79" s="150" t="s">
-        <v>113</v>
-      </c>
-      <c r="C79" s="185">
-        <v>1</v>
-      </c>
-      <c r="D79" s="149" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" s="149" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="G79" s="115"/>
-    </row>
-    <row r="80" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A80" s="35"/>
-      <c r="B80" s="151"/>
-      <c r="C80" s="17">
-        <v>2</v>
-      </c>
-      <c r="D80" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="G80" s="99"/>
-    </row>
-    <row r="81" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A81" s="35"/>
-      <c r="B81" s="151"/>
-      <c r="C81" s="17">
-        <v>3</v>
-      </c>
-      <c r="D81" s="141" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81" s="141" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="G81" s="99"/>
+      <c r="F81" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="G81" s="113"/>
     </row>
     <row r="82" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A82" s="35"/>
-      <c r="B82" s="151"/>
       <c r="C82" s="17">
+        <v>2</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F82" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G82" s="99"/>
+    </row>
+    <row r="83" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="67"/>
+      <c r="B83" s="150"/>
+      <c r="C83" s="177">
+        <v>3</v>
+      </c>
+      <c r="D83" s="112" t="s">
+        <v>142</v>
+      </c>
+      <c r="E83" s="112" t="s">
+        <v>169</v>
+      </c>
+      <c r="F83" s="135" t="s">
+        <v>35</v>
+      </c>
+      <c r="G83" s="113"/>
+    </row>
+    <row r="84" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="35"/>
+      <c r="B84" s="150"/>
+      <c r="C84" s="177">
         <v>4</v>
       </c>
-      <c r="D82" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E82" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F82" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="G82" s="99"/>
-    </row>
-    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="47"/>
-      <c r="B83" s="152"/>
-      <c r="C83" s="45">
+      <c r="D84" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="E84" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G84" s="99"/>
+    </row>
+    <row r="85" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="35"/>
+      <c r="B85" s="150"/>
+      <c r="C85" s="177">
         <v>5</v>
       </c>
-      <c r="D83" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="E83" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="F83" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="G83" s="106"/>
-    </row>
-    <row r="84" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="B84" s="151" t="s">
-        <v>114</v>
-      </c>
-      <c r="C84" s="184">
+      <c r="D85" s="112" t="s">
+        <v>168</v>
+      </c>
+      <c r="E85" s="112" t="s">
+        <v>170</v>
+      </c>
+      <c r="F85" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G85" s="99"/>
+    </row>
+    <row r="86" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="176" t="s">
+        <v>143</v>
+      </c>
+      <c r="B86" s="149" t="s">
+        <v>97</v>
+      </c>
+      <c r="C86" s="178">
         <v>1</v>
       </c>
-      <c r="D84" s="24" t="s">
+      <c r="D86" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E84" s="24" t="s">
+      <c r="E86" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F84" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="G84" s="113"/>
-    </row>
-    <row r="85" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A85" s="35"/>
-      <c r="C85" s="17">
+      <c r="F86" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="G86" s="152"/>
+    </row>
+    <row r="87" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A87" s="35"/>
+      <c r="B87" s="150"/>
+      <c r="C87" s="17">
         <v>2</v>
       </c>
-      <c r="D85" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E85" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F85" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="G85" s="99"/>
-    </row>
-    <row r="86" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="67"/>
-      <c r="B86" s="151"/>
-      <c r="C86" s="184">
+      <c r="D87" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G87" s="99"/>
+    </row>
+    <row r="88" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A88" s="35"/>
+      <c r="B88" s="150"/>
+      <c r="C88" s="17">
         <v>3</v>
       </c>
-      <c r="D86" s="112" t="s">
-        <v>151</v>
-      </c>
-      <c r="E86" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="F86" s="136" t="s">
-        <v>37</v>
-      </c>
-      <c r="G86" s="113"/>
-    </row>
-    <row r="87" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="183" t="s">
-        <v>153</v>
-      </c>
-      <c r="B87" s="150" t="s">
-        <v>101</v>
-      </c>
-      <c r="C87" s="185">
-        <v>1</v>
-      </c>
-      <c r="D87" s="149" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87" s="149" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="G87" s="153"/>
-    </row>
-    <row r="88" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A88" s="35"/>
-      <c r="B88" s="151"/>
-      <c r="C88" s="17">
-        <v>2</v>
-      </c>
-      <c r="D88" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="18" t="s">
-        <v>12</v>
+      <c r="D88" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="F88" s="81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G88" s="99"/>
     </row>
     <row r="89" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A89" s="35"/>
-      <c r="B89" s="151"/>
+      <c r="B89" s="150"/>
       <c r="C89" s="17">
+        <v>4</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="E89" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F89" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G89" s="99"/>
+    </row>
+    <row r="90" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A90" s="67"/>
+      <c r="B90" s="150"/>
+      <c r="C90" s="177">
+        <v>5</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F90" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G90" s="113"/>
+    </row>
+    <row r="91" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="67"/>
+      <c r="B91" s="169"/>
+      <c r="C91" s="17">
+        <v>6</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F91" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G91" s="99"/>
+    </row>
+    <row r="92" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="57"/>
+      <c r="B92" s="153"/>
+      <c r="C92" s="137">
+        <v>7</v>
+      </c>
+      <c r="D92" s="138" t="s">
+        <v>157</v>
+      </c>
+      <c r="E92" s="138" t="s">
+        <v>146</v>
+      </c>
+      <c r="F92" s="135" t="s">
+        <v>35</v>
+      </c>
+      <c r="G92" s="260"/>
+    </row>
+    <row r="93" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93" s="23">
+        <v>1</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="G93" s="26"/>
+    </row>
+    <row r="94" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A94" s="35"/>
+      <c r="B94" s="70"/>
+      <c r="C94" s="17">
+        <v>2</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G94" s="261"/>
+    </row>
+    <row r="95" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A95" s="37"/>
+      <c r="B95" s="71"/>
+      <c r="C95" s="13">
         <v>3</v>
       </c>
-      <c r="D89" s="141" t="s">
+      <c r="D95" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="141" t="s">
+      <c r="E95" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F89" s="81" t="s">
+      <c r="F95" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G95" s="16"/>
+    </row>
+    <row r="96" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A96" s="67"/>
+      <c r="B96" s="68"/>
+      <c r="C96" s="17">
+        <v>4</v>
+      </c>
+      <c r="D96" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G89" s="99"/>
-    </row>
-    <row r="90" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A90" s="35"/>
-      <c r="B90" s="151"/>
-      <c r="C90" s="17">
+      <c r="E96" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F96" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G96" s="19"/>
+    </row>
+    <row r="97" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A97" s="29"/>
+      <c r="B97" s="84"/>
+      <c r="C97" s="7">
+        <v>5</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F97" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="29"/>
+      <c r="B98" s="84"/>
+      <c r="C98" s="73">
+        <v>6</v>
+      </c>
+      <c r="D98" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="E98" s="164" t="s">
+        <v>91</v>
+      </c>
+      <c r="F98" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="G98" s="74"/>
+    </row>
+    <row r="99" spans="1:7" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="B99" s="87" t="s">
+        <v>147</v>
+      </c>
+      <c r="C99" s="88">
+        <v>1</v>
+      </c>
+      <c r="D99" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="E99" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="F99" s="146" t="s">
+        <v>35</v>
+      </c>
+      <c r="G99" s="90"/>
+    </row>
+    <row r="100" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="B100" s="85" t="s">
+        <v>184</v>
+      </c>
+      <c r="C100" s="73">
+        <v>1</v>
+      </c>
+      <c r="D100" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E100" s="164" t="s">
+        <v>57</v>
+      </c>
+      <c r="F100" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G100" s="74"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="72"/>
+      <c r="B101" s="85"/>
+      <c r="C101" s="73">
+        <v>2</v>
+      </c>
+      <c r="D101" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="E101" s="164" t="s">
+        <v>61</v>
+      </c>
+      <c r="F101" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G101" s="74"/>
+    </row>
+    <row r="102" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="72"/>
+      <c r="B102" s="85"/>
+      <c r="C102" s="73">
+        <v>3</v>
+      </c>
+      <c r="D102" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="E102" s="164" t="s">
+        <v>61</v>
+      </c>
+      <c r="F102" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G102" s="74"/>
+    </row>
+    <row r="103" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="72"/>
+      <c r="B103" s="85"/>
+      <c r="C103" s="73">
         <v>4</v>
       </c>
-      <c r="D90" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="E90" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F90" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="G90" s="99"/>
-    </row>
-    <row r="91" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A91" s="67"/>
-      <c r="B91" s="151"/>
-      <c r="C91" s="184">
+      <c r="D103" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="E103" s="164" t="s">
+        <v>61</v>
+      </c>
+      <c r="F103" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G103" s="74"/>
+    </row>
+    <row r="104" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="72"/>
+      <c r="B104" s="85"/>
+      <c r="C104" s="73">
         <v>5</v>
       </c>
-      <c r="D91" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E91" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F91" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="G91" s="113"/>
-    </row>
-    <row r="92" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="67"/>
-      <c r="B92" s="170"/>
-      <c r="C92" s="17">
+      <c r="D104" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="164" t="s">
+        <v>61</v>
+      </c>
+      <c r="F104" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G104" s="74"/>
+    </row>
+    <row r="105" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="72"/>
+      <c r="B105" s="85"/>
+      <c r="C105" s="73">
         <v>6</v>
       </c>
-      <c r="D92" s="18" t="s">
+      <c r="D105" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="E105" s="164" t="s">
+        <v>61</v>
+      </c>
+      <c r="F105" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G105" s="74"/>
+    </row>
+    <row r="106" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="72"/>
+      <c r="B106" s="85"/>
+      <c r="C106" s="73">
+        <v>7</v>
+      </c>
+      <c r="D106" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="E106" s="164" t="s">
+        <v>61</v>
+      </c>
+      <c r="F106" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G106" s="74"/>
+    </row>
+    <row r="107" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="72"/>
+      <c r="B107" s="85"/>
+      <c r="C107" s="73">
+        <v>8</v>
+      </c>
+      <c r="D107" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="E107" s="164" t="s">
+        <v>61</v>
+      </c>
+      <c r="F107" s="132" t="s">
+        <v>35</v>
+      </c>
+      <c r="G107" s="74"/>
+    </row>
+    <row r="108" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A108" s="72"/>
+      <c r="B108" s="85"/>
+      <c r="C108" s="163">
+        <v>9</v>
+      </c>
+      <c r="D108" s="164" t="s">
+        <v>152</v>
+      </c>
+      <c r="E108" s="164" t="s">
+        <v>148</v>
+      </c>
+      <c r="F108" s="165" t="s">
+        <v>149</v>
+      </c>
+      <c r="G108" s="74"/>
+    </row>
+    <row r="109" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="72"/>
+      <c r="B109" s="85"/>
+      <c r="C109" s="163">
+        <v>10</v>
+      </c>
+      <c r="D109" s="164" t="s">
         <v>151</v>
       </c>
-      <c r="E92" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="F92" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="G92" s="99"/>
-    </row>
-    <row r="93" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="142"/>
-      <c r="B93" s="143"/>
-      <c r="C93" s="135">
+      <c r="E109" s="164" t="s">
+        <v>150</v>
+      </c>
+      <c r="F109" s="165" t="s">
+        <v>164</v>
+      </c>
+      <c r="G109" s="74"/>
+    </row>
+    <row r="110" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="253" t="s">
+        <v>165</v>
+      </c>
+      <c r="B110" s="262" t="s">
+        <v>185</v>
+      </c>
+      <c r="C110" s="254">
+        <v>1</v>
+      </c>
+      <c r="D110" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="169" t="s">
-        <v>169</v>
-      </c>
-      <c r="E93" s="169" t="s">
-        <v>157</v>
-      </c>
-      <c r="F93" s="166" t="s">
-        <v>170</v>
-      </c>
-      <c r="G93" s="186"/>
-    </row>
-    <row r="94" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="B94" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="C94" s="23">
+      <c r="E110" s="148" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="196" t="s">
+        <v>35</v>
+      </c>
+      <c r="G110" s="192"/>
+    </row>
+    <row r="111" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A111" s="37"/>
+      <c r="B111" s="229"/>
+      <c r="C111" s="13">
+        <v>2</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F111" s="197" t="s">
+        <v>35</v>
+      </c>
+      <c r="G111" s="102"/>
+    </row>
+    <row r="112" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="47"/>
+      <c r="B112" s="263"/>
+      <c r="C112" s="45">
+        <v>3</v>
+      </c>
+      <c r="D112" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="E112" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="F112" s="198" t="s">
+        <v>35</v>
+      </c>
+      <c r="G112" s="106"/>
+    </row>
+    <row r="113" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="B113" s="229" t="s">
+        <v>186</v>
+      </c>
+      <c r="C113" s="230">
         <v>1</v>
       </c>
-      <c r="D94" s="24" t="s">
+      <c r="D113" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="E94" s="24" t="s">
+      <c r="E113" s="194" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="G94" s="26"/>
-    </row>
-    <row r="95" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A95" s="155"/>
-      <c r="B95" s="156"/>
-      <c r="C95" s="17">
+      <c r="F113" s="199" t="s">
+        <v>35</v>
+      </c>
+      <c r="G113" s="195"/>
+    </row>
+    <row r="114" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A114" s="35"/>
+      <c r="B114" s="228"/>
+      <c r="C114" s="226">
         <v>2</v>
       </c>
-      <c r="D95" s="18" t="s">
+      <c r="D114" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E95" s="18" t="s">
+      <c r="E114" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F95" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="G95" s="158"/>
-    </row>
-    <row r="96" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A96" s="57"/>
-      <c r="B96" s="154"/>
-      <c r="C96" s="13">
+      <c r="F114" s="200" t="s">
+        <v>35</v>
+      </c>
+      <c r="G114" s="187"/>
+    </row>
+    <row r="115" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A115" s="37"/>
+      <c r="B115" s="229"/>
+      <c r="C115" s="13">
         <v>3</v>
       </c>
-      <c r="D96" s="14" t="s">
+      <c r="D115" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E96" s="14" t="s">
+      <c r="E115" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F96" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="G96" s="16"/>
-    </row>
-    <row r="97" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A97" s="155"/>
-      <c r="B97" s="156"/>
-      <c r="C97" s="17">
+      <c r="F115" s="200" t="s">
+        <v>35</v>
+      </c>
+      <c r="G115" s="102"/>
+    </row>
+    <row r="116" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A116" s="35"/>
+      <c r="B116" s="228"/>
+      <c r="C116" s="17">
         <v>4</v>
       </c>
-      <c r="D97" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E97" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F97" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="G97" s="19"/>
-    </row>
-    <row r="98" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A98" s="57"/>
-      <c r="B98" s="154"/>
-      <c r="C98" s="13">
+      <c r="D116" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="E116" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F116" s="200" t="s">
+        <v>35</v>
+      </c>
+      <c r="G116" s="99"/>
+    </row>
+    <row r="117" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A117" s="37"/>
+      <c r="B117" s="229"/>
+      <c r="C117" s="13">
         <v>5</v>
       </c>
-      <c r="D98" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F98" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="G98" s="16"/>
-    </row>
-    <row r="99" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="142"/>
-      <c r="B99" s="143"/>
-      <c r="C99" s="140">
+      <c r="D117" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F117" s="200" t="s">
+        <v>35</v>
+      </c>
+      <c r="G117" s="102"/>
+    </row>
+    <row r="118" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A118" s="35"/>
+      <c r="B118" s="228"/>
+      <c r="C118" s="226">
         <v>6</v>
       </c>
-      <c r="D99" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F99" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="G99" s="130"/>
-    </row>
-    <row r="100" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A100" s="57"/>
-      <c r="B100" s="154"/>
-      <c r="C100" s="13">
+      <c r="D118" s="184" t="s">
+        <v>174</v>
+      </c>
+      <c r="E118" s="184" t="s">
+        <v>175</v>
+      </c>
+      <c r="F118" s="200" t="s">
+        <v>35</v>
+      </c>
+      <c r="G118" s="187"/>
+    </row>
+    <row r="119" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A119" s="37"/>
+      <c r="B119" s="229"/>
+      <c r="C119" s="227">
         <v>7</v>
       </c>
-      <c r="D100" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="E100" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F100" s="137" t="s">
-        <v>37</v>
-      </c>
-      <c r="G100" s="16"/>
-    </row>
-    <row r="101" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="142"/>
-      <c r="B101" s="143"/>
-      <c r="C101" s="140">
+      <c r="D119" s="185" t="s">
+        <v>176</v>
+      </c>
+      <c r="E119" s="185" t="s">
+        <v>177</v>
+      </c>
+      <c r="F119" s="200" t="s">
+        <v>35</v>
+      </c>
+      <c r="G119" s="186"/>
+    </row>
+    <row r="120" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="67"/>
+      <c r="B120" s="264"/>
+      <c r="C120" s="177">
         <v>8</v>
       </c>
-      <c r="D101" s="141" t="s">
-        <v>143</v>
-      </c>
-      <c r="E101" s="141" t="s">
-        <v>144</v>
-      </c>
-      <c r="F101" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="G101" s="163" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A102" s="57"/>
-      <c r="B102" s="154"/>
-      <c r="C102" s="13">
-        <v>9</v>
-      </c>
-      <c r="D102" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E102" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="F102" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="G102" s="16"/>
-    </row>
-    <row r="103" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="144"/>
-      <c r="B103" s="145"/>
-      <c r="C103" s="20">
-        <v>10</v>
-      </c>
-      <c r="D103" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="E103" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="F103" s="157" t="s">
-        <v>37</v>
-      </c>
-      <c r="G103" s="22"/>
-    </row>
-    <row r="104" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="161" t="s">
-        <v>150</v>
-      </c>
-      <c r="B104" s="162" t="s">
-        <v>158</v>
-      </c>
-      <c r="C104" s="159">
+      <c r="D120" s="112" t="s">
+        <v>178</v>
+      </c>
+      <c r="E120" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="F120" s="265" t="s">
+        <v>35</v>
+      </c>
+      <c r="G120" s="113"/>
+    </row>
+    <row r="121" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="B121" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C121" s="23">
         <v>1</v>
       </c>
-      <c r="D104" s="149" t="s">
-        <v>165</v>
-      </c>
-      <c r="E104" s="149" t="s">
-        <v>166</v>
-      </c>
-      <c r="F104" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="G104" s="160"/>
-    </row>
-    <row r="105" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="57"/>
-      <c r="B105" s="154"/>
-      <c r="C105" s="13">
+      <c r="D121" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="G121" s="214"/>
+    </row>
+    <row r="122" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A122" s="29"/>
+      <c r="B122" s="84"/>
+      <c r="C122" s="17">
         <v>2</v>
       </c>
-      <c r="D105" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="E105" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="F105" s="137" t="s">
-        <v>37</v>
-      </c>
-      <c r="G105" s="16"/>
-    </row>
-    <row r="106" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="142"/>
-      <c r="B106" s="143"/>
-      <c r="C106" s="140">
+      <c r="D122" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G122" s="216"/>
+    </row>
+    <row r="123" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A123" s="29"/>
+      <c r="B123" s="84"/>
+      <c r="C123" s="13">
         <v>3</v>
       </c>
-      <c r="D106" s="141" t="s">
-        <v>151</v>
-      </c>
-      <c r="E106" s="141" t="s">
-        <v>157</v>
-      </c>
-      <c r="F106" s="137" t="s">
-        <v>37</v>
-      </c>
-      <c r="G106" s="130"/>
-    </row>
-    <row r="107" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="57"/>
-      <c r="B107" s="154"/>
-      <c r="C107" s="138">
+      <c r="D123" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G123" s="216"/>
+    </row>
+    <row r="124" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A124" s="29"/>
+      <c r="B124" s="84"/>
+      <c r="C124" s="17">
         <v>4</v>
       </c>
-      <c r="D107" s="139" t="s">
-        <v>169</v>
-      </c>
-      <c r="E107" s="139" t="s">
-        <v>157</v>
-      </c>
-      <c r="F107" s="166" t="s">
-        <v>170</v>
-      </c>
-      <c r="G107" s="56"/>
+      <c r="D124" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E124" s="170" t="s">
+        <v>38</v>
+      </c>
+      <c r="F124" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G124" s="216"/>
+    </row>
+    <row r="125" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A125" s="29"/>
+      <c r="B125" s="84"/>
+      <c r="C125" s="7">
+        <v>5</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F125" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G125" s="216"/>
+    </row>
+    <row r="126" spans="1:7" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="31"/>
+      <c r="B126" s="32"/>
+      <c r="C126" s="10">
+        <v>6</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F126" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="G126" s="219"/>
+    </row>
+    <row r="127" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="B127" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C127" s="232">
+        <v>1</v>
+      </c>
+      <c r="D127" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" s="221" t="s">
+        <v>35</v>
+      </c>
+      <c r="G127" s="214"/>
+    </row>
+    <row r="128" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A128" s="29"/>
+      <c r="B128" s="84"/>
+      <c r="C128" s="233">
+        <v>2</v>
+      </c>
+      <c r="D128" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="G128" s="216"/>
+    </row>
+    <row r="129" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A129" s="29"/>
+      <c r="B129" s="84"/>
+      <c r="C129" s="234">
+        <v>3</v>
+      </c>
+      <c r="D129" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="G129" s="216"/>
+    </row>
+    <row r="130" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A130" s="29"/>
+      <c r="B130" s="84"/>
+      <c r="C130" s="233">
+        <v>4</v>
+      </c>
+      <c r="D130" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E130" s="170" t="s">
+        <v>38</v>
+      </c>
+      <c r="F130" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="G130" s="216"/>
+    </row>
+    <row r="131" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A131" s="29"/>
+      <c r="B131" s="84"/>
+      <c r="C131" s="42">
+        <v>5</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F131" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="G131" s="216"/>
+    </row>
+    <row r="132" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A132" s="29"/>
+      <c r="B132" s="84"/>
+      <c r="C132" s="42">
+        <v>6</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F132" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="G132" s="216"/>
+    </row>
+    <row r="133" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A133" s="29"/>
+      <c r="B133" s="84"/>
+      <c r="C133" s="42">
+        <v>7</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F133" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="G133" s="216"/>
+    </row>
+    <row r="134" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="29"/>
+      <c r="B134" s="84"/>
+      <c r="C134" s="266">
+        <v>8</v>
+      </c>
+      <c r="D134" s="164" t="s">
+        <v>199</v>
+      </c>
+      <c r="E134" s="164" t="s">
+        <v>198</v>
+      </c>
+      <c r="F134" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="G134" s="241"/>
+    </row>
+    <row r="135" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="B135" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="C135" s="23">
+        <v>1</v>
+      </c>
+      <c r="D135" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="G135" s="96"/>
+    </row>
+    <row r="136" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A136" s="154"/>
+      <c r="B136" s="155"/>
+      <c r="C136" s="17">
+        <v>2</v>
+      </c>
+      <c r="D136" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G136" s="99"/>
+    </row>
+    <row r="137" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A137" s="57"/>
+      <c r="B137" s="153"/>
+      <c r="C137" s="13">
+        <v>3</v>
+      </c>
+      <c r="D137" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F137" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G137" s="102"/>
+    </row>
+    <row r="138" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A138" s="154"/>
+      <c r="B138" s="155"/>
+      <c r="C138" s="17">
+        <v>4</v>
+      </c>
+      <c r="D138" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="E138" s="170" t="s">
+        <v>205</v>
+      </c>
+      <c r="F138" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G138" s="99"/>
+    </row>
+    <row r="139" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A139" s="29"/>
+      <c r="B139" s="84"/>
+      <c r="C139" s="7">
+        <v>5</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F139" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G139" s="216"/>
+    </row>
+    <row r="140" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A140" s="29"/>
+      <c r="B140" s="84"/>
+      <c r="C140" s="7">
+        <v>6</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F140" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G140" s="216"/>
+    </row>
+    <row r="141" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A141" s="29"/>
+      <c r="B141" s="84"/>
+      <c r="C141" s="7">
+        <v>7</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F141" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="G141" s="216"/>
+    </row>
+    <row r="142" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="31"/>
+      <c r="B142" s="32"/>
+      <c r="C142" s="163">
+        <v>8</v>
+      </c>
+      <c r="D142" s="164" t="s">
+        <v>214</v>
+      </c>
+      <c r="E142" s="164" t="s">
+        <v>215</v>
+      </c>
+      <c r="F142" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="G142" s="241"/>
+    </row>
+    <row r="143" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="B143" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C143" s="249">
+        <v>1</v>
+      </c>
+      <c r="D143" s="242" t="s">
+        <v>216</v>
+      </c>
+      <c r="E143" s="242" t="s">
+        <v>221</v>
+      </c>
+      <c r="F143" s="133" t="s">
+        <v>35</v>
+      </c>
+      <c r="G143" s="243"/>
+    </row>
+    <row r="144" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A144" s="29"/>
+      <c r="B144" s="84"/>
+      <c r="C144" s="163">
+        <v>2</v>
+      </c>
+      <c r="D144" s="164" t="s">
+        <v>210</v>
+      </c>
+      <c r="E144" s="164" t="s">
+        <v>211</v>
+      </c>
+      <c r="F144" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="G144" s="241"/>
+    </row>
+    <row r="145" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A145" s="29"/>
+      <c r="B145" s="84"/>
+      <c r="C145" s="163">
+        <v>3</v>
+      </c>
+      <c r="D145" s="164" t="s">
+        <v>212</v>
+      </c>
+      <c r="E145" s="164" t="s">
+        <v>208</v>
+      </c>
+      <c r="F145" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="G145" s="241"/>
+    </row>
+    <row r="146" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="31"/>
+      <c r="B146" s="32"/>
+      <c r="C146" s="10">
+        <v>4</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F146" s="156" t="s">
+        <v>35</v>
+      </c>
+      <c r="G146" s="219"/>
+    </row>
+    <row r="147" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B147" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="C147" s="249">
+        <v>1</v>
+      </c>
+      <c r="D147" s="242" t="s">
+        <v>220</v>
+      </c>
+      <c r="E147" s="242" t="s">
+        <v>221</v>
+      </c>
+      <c r="F147" s="133" t="s">
+        <v>35</v>
+      </c>
+      <c r="G147" s="243"/>
+    </row>
+    <row r="148" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A148" s="29"/>
+      <c r="B148" s="84"/>
+      <c r="C148" s="163">
+        <v>2</v>
+      </c>
+      <c r="D148" s="164" t="s">
+        <v>222</v>
+      </c>
+      <c r="E148" s="164" t="s">
+        <v>223</v>
+      </c>
+      <c r="F148" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="G148" s="241"/>
+    </row>
+    <row r="149" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A149" s="29"/>
+      <c r="B149" s="84"/>
+      <c r="C149" s="163">
+        <v>3</v>
+      </c>
+      <c r="D149" s="164" t="s">
+        <v>213</v>
+      </c>
+      <c r="E149" s="164" t="s">
+        <v>224</v>
+      </c>
+      <c r="F149" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="G149" s="241"/>
+    </row>
+    <row r="150" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="29"/>
+      <c r="B150" s="84"/>
+      <c r="C150" s="163">
+        <v>4</v>
+      </c>
+      <c r="D150" s="164" t="s">
+        <v>225</v>
+      </c>
+      <c r="E150" s="164" t="s">
+        <v>226</v>
+      </c>
+      <c r="F150" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="G150" s="241"/>
+    </row>
+    <row r="151" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="B151" s="28">
+        <v>91</v>
+      </c>
+      <c r="C151" s="23">
+        <v>1</v>
+      </c>
+      <c r="D151" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F151" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="G151" s="6"/>
+    </row>
+    <row r="152" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A152" s="29"/>
+      <c r="B152" s="84"/>
+      <c r="C152" s="17">
+        <v>2</v>
+      </c>
+      <c r="D152" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E152" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F152" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G152" s="9"/>
+    </row>
+    <row r="153" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A153" s="29"/>
+      <c r="B153" s="84"/>
+      <c r="C153" s="13">
+        <v>3</v>
+      </c>
+      <c r="D153" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E153" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G153" s="9"/>
+    </row>
+    <row r="154" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A154" s="29"/>
+      <c r="B154" s="84"/>
+      <c r="C154" s="17">
+        <v>4</v>
+      </c>
+      <c r="D154" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="E154" s="170" t="s">
+        <v>205</v>
+      </c>
+      <c r="F154" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G154" s="9"/>
+    </row>
+    <row r="155" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A155" s="29"/>
+      <c r="B155" s="84"/>
+      <c r="C155" s="13">
+        <v>5</v>
+      </c>
+      <c r="D155" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E155" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="F155" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G155" s="9"/>
+    </row>
+    <row r="156" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A156" s="29"/>
+      <c r="B156" s="84"/>
+      <c r="C156" s="139">
+        <v>6</v>
+      </c>
+      <c r="D156" s="140" t="s">
+        <v>231</v>
+      </c>
+      <c r="E156" s="140" t="s">
+        <v>232</v>
+      </c>
+      <c r="F156" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="G156" s="9"/>
+    </row>
+    <row r="157" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="31"/>
+      <c r="B157" s="32"/>
+      <c r="C157" s="20">
+        <v>7</v>
+      </c>
+      <c r="D157" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="E157" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="F157" s="156" t="s">
+        <v>35</v>
+      </c>
+      <c r="G157" s="12"/>
+    </row>
+    <row r="158" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="B158" s="28">
+        <v>92</v>
+      </c>
+      <c r="C158" s="158">
+        <v>1</v>
+      </c>
+      <c r="D158" s="148" t="s">
+        <v>236</v>
+      </c>
+      <c r="E158" s="148" t="s">
+        <v>237</v>
+      </c>
+      <c r="F158" s="221" t="s">
+        <v>35</v>
+      </c>
+      <c r="G158" s="6"/>
+    </row>
+    <row r="159" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A159" s="29"/>
+      <c r="B159" s="84"/>
+      <c r="C159" s="13">
+        <v>2</v>
+      </c>
+      <c r="D159" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="E159" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="F159" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="G159" s="9"/>
+    </row>
+    <row r="160" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="29"/>
+      <c r="B160" s="84"/>
+      <c r="C160" s="134">
+        <v>3</v>
+      </c>
+      <c r="D160" s="168" t="s">
+        <v>240</v>
+      </c>
+      <c r="E160" s="168" t="s">
+        <v>241</v>
+      </c>
+      <c r="F160" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="G160" s="74"/>
+    </row>
+    <row r="161" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="B161" s="28">
+        <v>101</v>
+      </c>
+      <c r="C161" s="41">
+        <v>1</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F161" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="G161" s="214"/>
+    </row>
+    <row r="162" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A162" s="29"/>
+      <c r="B162" s="84"/>
+      <c r="C162" s="267">
+        <v>2</v>
+      </c>
+      <c r="D162" s="140" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="F162" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G162" s="216"/>
+    </row>
+    <row r="163" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A163" s="29"/>
+      <c r="B163" s="84"/>
+      <c r="C163" s="233">
+        <v>3</v>
+      </c>
+      <c r="D163" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F163" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G163" s="216"/>
+    </row>
+    <row r="164" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A164" s="29"/>
+      <c r="B164" s="84"/>
+      <c r="C164" s="267">
+        <v>4</v>
+      </c>
+      <c r="D164" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="E164" s="140" t="s">
+        <v>14</v>
+      </c>
+      <c r="F164" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G164" s="216"/>
+    </row>
+    <row r="165" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A165" s="29"/>
+      <c r="B165" s="84"/>
+      <c r="C165" s="233">
+        <v>5</v>
+      </c>
+      <c r="D165" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="E165" s="256" t="s">
+        <v>205</v>
+      </c>
+      <c r="F165" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G165" s="216"/>
+    </row>
+    <row r="166" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A166" s="29"/>
+      <c r="B166" s="84"/>
+      <c r="C166" s="267">
+        <v>6</v>
+      </c>
+      <c r="D166" s="140" t="s">
+        <v>245</v>
+      </c>
+      <c r="E166" s="140" t="s">
+        <v>246</v>
+      </c>
+      <c r="F166" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G166" s="216"/>
+    </row>
+    <row r="167" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A167" s="29"/>
+      <c r="B167" s="84"/>
+      <c r="C167" s="266">
+        <v>7</v>
+      </c>
+      <c r="D167" s="164" t="s">
+        <v>247</v>
+      </c>
+      <c r="E167" s="164" t="s">
+        <v>248</v>
+      </c>
+      <c r="F167" s="135" t="s">
+        <v>35</v>
+      </c>
+      <c r="G167" s="241"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -6347,13 +8483,740 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" style="205" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="93"/>
+    </row>
+    <row r="2" spans="1:16" ht="101.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="235" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="236" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="96"/>
+    </row>
+    <row r="3" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="237"/>
+      <c r="B3" s="238"/>
+      <c r="C3" s="18">
+        <v>2</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="99"/>
+    </row>
+    <row r="4" spans="1:16" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="239"/>
+      <c r="B4" s="240"/>
+      <c r="C4" s="14">
+        <v>3</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="102"/>
+    </row>
+    <row r="5" spans="1:16" ht="232.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="237"/>
+      <c r="B5" s="238"/>
+      <c r="C5" s="18">
+        <v>4</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="170" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="99"/>
+    </row>
+    <row r="6" spans="1:16" ht="258" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="215"/>
+      <c r="B6" s="211"/>
+      <c r="C6" s="8">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F6" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="216"/>
+    </row>
+    <row r="7" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="215"/>
+      <c r="B7" s="211"/>
+      <c r="C7" s="8">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="216"/>
+    </row>
+    <row r="8" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="215"/>
+      <c r="B8" s="211"/>
+      <c r="C8" s="8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="216"/>
+    </row>
+    <row r="9" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="217"/>
+      <c r="B9" s="218"/>
+      <c r="C9" s="164">
+        <v>8</v>
+      </c>
+      <c r="D9" s="164" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" s="164" t="s">
+        <v>215</v>
+      </c>
+      <c r="F9" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="241"/>
+    </row>
+    <row r="10" spans="1:16" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="212" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="213" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="242">
+        <v>1</v>
+      </c>
+      <c r="D10" s="242" t="s">
+        <v>216</v>
+      </c>
+      <c r="E10" s="242" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="133" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="243"/>
+    </row>
+    <row r="11" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="215"/>
+      <c r="B11" s="211"/>
+      <c r="C11" s="164">
+        <v>2</v>
+      </c>
+      <c r="D11" s="164" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" s="164" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="241"/>
+    </row>
+    <row r="12" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="215"/>
+      <c r="B12" s="211"/>
+      <c r="C12" s="164">
+        <v>3</v>
+      </c>
+      <c r="D12" s="164" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" s="164" t="s">
+        <v>208</v>
+      </c>
+      <c r="F12" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="241"/>
+    </row>
+    <row r="13" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="217"/>
+      <c r="B13" s="218"/>
+      <c r="C13" s="11">
+        <v>4</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" s="156" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="219"/>
+    </row>
+    <row r="14" spans="1:16" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="212" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" s="213" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="242">
+        <v>1</v>
+      </c>
+      <c r="D14" s="242" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="242" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="133" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="243"/>
+    </row>
+    <row r="15" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="215"/>
+      <c r="B15" s="211"/>
+      <c r="C15" s="164">
+        <v>2</v>
+      </c>
+      <c r="D15" s="164" t="s">
+        <v>222</v>
+      </c>
+      <c r="E15" s="164" t="s">
+        <v>223</v>
+      </c>
+      <c r="F15" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="241"/>
+    </row>
+    <row r="16" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="215"/>
+      <c r="B16" s="211"/>
+      <c r="C16" s="164">
+        <v>3</v>
+      </c>
+      <c r="D16" s="164" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" s="164" t="s">
+        <v>224</v>
+      </c>
+      <c r="F16" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="241"/>
+    </row>
+    <row r="17" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="217"/>
+      <c r="B17" s="218"/>
+      <c r="C17" s="11">
+        <v>4</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F17" s="156" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="219"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="26.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="244" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="245" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="246" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="246" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="246" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="246" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="247" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="144.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="249">
+        <v>91</v>
+      </c>
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="29"/>
+      <c r="B3" s="250"/>
+      <c r="C3" s="18">
+        <v>2</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="233.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29"/>
+      <c r="B4" s="250"/>
+      <c r="C4" s="14">
+        <v>3</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="250.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29"/>
+      <c r="B5" s="250"/>
+      <c r="C5" s="18">
+        <v>4</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="170" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="244.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29"/>
+      <c r="B6" s="250"/>
+      <c r="C6" s="14">
+        <v>5</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="F6" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29"/>
+      <c r="B7" s="250"/>
+      <c r="C7" s="140">
+        <v>6</v>
+      </c>
+      <c r="D7" s="140" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" s="140" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="31"/>
+      <c r="B8" s="251"/>
+      <c r="C8" s="21">
+        <v>7</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="F8" s="156" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" s="249">
+        <v>92</v>
+      </c>
+      <c r="C9" s="148">
+        <v>1</v>
+      </c>
+      <c r="D9" s="148" t="s">
+        <v>236</v>
+      </c>
+      <c r="E9" s="148" t="s">
+        <v>237</v>
+      </c>
+      <c r="F9" s="221" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="29"/>
+      <c r="B10" s="250"/>
+      <c r="C10" s="14">
+        <v>2</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="F10" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="31"/>
+      <c r="B11" s="251"/>
+      <c r="C11" s="126">
+        <v>3</v>
+      </c>
+      <c r="D11" s="126" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" s="126" t="s">
+        <v>241</v>
+      </c>
+      <c r="F11" s="156" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="14" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="208" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="209" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="206" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="206" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="206" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="206" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="207" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="212" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="242">
+        <v>101</v>
+      </c>
+      <c r="C2" s="257">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="214"/>
+    </row>
+    <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="215"/>
+      <c r="B3" s="210"/>
+      <c r="C3" s="258">
+        <v>2</v>
+      </c>
+      <c r="D3" s="140" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="216"/>
+    </row>
+    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="215"/>
+      <c r="B4" s="210"/>
+      <c r="C4" s="222">
+        <v>3</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="216"/>
+    </row>
+    <row r="5" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="215"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="258">
+        <v>4</v>
+      </c>
+      <c r="D5" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="140" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="216"/>
+    </row>
+    <row r="6" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="215"/>
+      <c r="B6" s="210"/>
+      <c r="C6" s="222">
+        <v>5</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="256" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="216"/>
+    </row>
+    <row r="7" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="215"/>
+      <c r="B7" s="210"/>
+      <c r="C7" s="258">
+        <v>6</v>
+      </c>
+      <c r="D7" s="140" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="140" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="216"/>
+    </row>
+    <row r="8" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="217"/>
+      <c r="B8" s="259"/>
+      <c r="C8" s="225">
+        <v>7</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="219"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -6361,8 +9224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6416,7 +9279,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2" s="6"/>
     </row>
@@ -6433,9 +9296,9 @@
         <v>12</v>
       </c>
       <c r="F3" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="191"/>
+        <v>35</v>
+      </c>
+      <c r="G3" s="183"/>
     </row>
     <row r="4" spans="1:7" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29"/>
@@ -6450,7 +9313,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4" s="9"/>
     </row>
@@ -6464,10 +9327,10 @@
         <v>15</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="F5" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5" s="9"/>
     </row>
@@ -6478,13 +9341,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" s="9"/>
     </row>
@@ -6495,34 +9358,34 @@
         <v>6</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="F7" s="78" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="41">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="F8" s="76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -6533,13 +9396,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G9" s="9"/>
     </row>
@@ -6550,13 +9413,13 @@
         <v>3</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="9"/>
     </row>
@@ -6567,13 +9430,13 @@
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11" s="9"/>
     </row>
@@ -6584,13 +9447,13 @@
         <v>5</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G12" s="9"/>
     </row>
@@ -6601,13 +9464,13 @@
         <v>6</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" s="9"/>
     </row>
@@ -6618,13 +9481,13 @@
         <v>7</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G14" s="9"/>
     </row>
@@ -6635,34 +9498,34 @@
         <v>8</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>31</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>32</v>
       </c>
       <c r="C16" s="41">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" s="76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G16" s="6"/>
     </row>
@@ -6676,10 +9539,10 @@
         <v>15</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F17" s="77" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G17" s="9"/>
     </row>
@@ -6690,13 +9553,13 @@
         <v>3</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F18" s="79" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G18" s="12"/>
     </row>
@@ -6714,8 +9577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6754,10 +9617,10 @@
     </row>
     <row r="2" spans="1:7" ht="72.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="62" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C2" s="23">
         <v>1</v>
@@ -6769,13 +9632,13 @@
         <v>8</v>
       </c>
       <c r="F2" s="80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="155"/>
-      <c r="B3" s="156"/>
+      <c r="A3" s="154"/>
+      <c r="B3" s="155"/>
       <c r="C3" s="17">
         <v>2</v>
       </c>
@@ -6786,13 +9649,13 @@
         <v>12</v>
       </c>
       <c r="F3" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="158"/>
+        <v>35</v>
+      </c>
+      <c r="G3" s="157"/>
     </row>
     <row r="4" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="57"/>
-      <c r="B4" s="154"/>
+      <c r="B4" s="153"/>
       <c r="C4" s="13">
         <v>3</v>
       </c>
@@ -6803,253 +9666,253 @@
         <v>14</v>
       </c>
       <c r="F4" s="81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A5" s="155"/>
-      <c r="B5" s="156"/>
+      <c r="A5" s="154"/>
+      <c r="B5" s="155"/>
       <c r="C5" s="17">
         <v>4</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" s="81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" ht="301.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="57"/>
-      <c r="B6" s="154"/>
+      <c r="B6" s="153"/>
       <c r="C6" s="13">
         <v>5</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F6" s="81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="142"/>
-      <c r="B7" s="143"/>
-      <c r="C7" s="140">
+      <c r="A7" s="141"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="139">
         <v>6</v>
       </c>
-      <c r="D7" s="141" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="141" t="s">
-        <v>122</v>
+      <c r="D7" s="140" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="140" t="s">
+        <v>113</v>
       </c>
       <c r="F7" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7" s="130"/>
     </row>
     <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="57"/>
-      <c r="B8" s="154"/>
+      <c r="B8" s="153"/>
       <c r="C8" s="13">
         <v>7</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="137" t="s">
-        <v>37</v>
+        <v>114</v>
+      </c>
+      <c r="F8" s="136" t="s">
+        <v>35</v>
       </c>
       <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="57"/>
-      <c r="B9" s="154"/>
+      <c r="B9" s="153"/>
       <c r="C9" s="13">
         <v>8</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="137" t="s">
-        <v>37</v>
+        <v>114</v>
+      </c>
+      <c r="F9" s="136" t="s">
+        <v>35</v>
       </c>
       <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="142"/>
-      <c r="B10" s="143"/>
-      <c r="C10" s="140">
+      <c r="A10" s="141"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="139">
         <v>9</v>
       </c>
-      <c r="D10" s="141" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" s="141" t="s">
-        <v>125</v>
+      <c r="D10" s="140" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="140" t="s">
+        <v>116</v>
       </c>
       <c r="F10" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="130"/>
     </row>
     <row r="11" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A11" s="57"/>
-      <c r="B11" s="154"/>
+      <c r="B11" s="153"/>
       <c r="C11" s="13">
         <v>10</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F11" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="144"/>
-      <c r="B12" s="145"/>
+      <c r="A12" s="143"/>
+      <c r="B12" s="144"/>
       <c r="C12" s="20">
         <v>11</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" s="157" t="s">
-        <v>37</v>
+        <v>120</v>
+      </c>
+      <c r="F12" s="156" t="s">
+        <v>35</v>
       </c>
       <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="161" t="s">
-        <v>130</v>
-      </c>
-      <c r="B13" s="162" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="159">
+      <c r="A13" s="160" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="161" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="158">
         <v>1</v>
       </c>
-      <c r="D13" s="149" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" s="149" t="s">
-        <v>129</v>
+      <c r="D13" s="148" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="148" t="s">
+        <v>120</v>
       </c>
       <c r="F13" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="160"/>
+        <v>35</v>
+      </c>
+      <c r="G13" s="159"/>
     </row>
     <row r="14" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="57"/>
-      <c r="B14" s="154"/>
+      <c r="B14" s="153"/>
       <c r="C14" s="13">
         <v>2</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="137" t="s">
-        <v>37</v>
+        <v>124</v>
+      </c>
+      <c r="F14" s="136" t="s">
+        <v>35</v>
       </c>
       <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7" ht="205.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="142"/>
-      <c r="B15" s="143"/>
+      <c r="A15" s="141"/>
+      <c r="B15" s="142"/>
       <c r="C15" s="128">
         <v>3</v>
       </c>
-      <c r="D15" s="141" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="141" t="s">
-        <v>88</v>
+      <c r="D15" s="140" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="140" t="s">
+        <v>84</v>
       </c>
       <c r="F15" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G15" s="130"/>
     </row>
     <row r="16" spans="1:7" ht="177" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="144"/>
-      <c r="B16" s="145"/>
+      <c r="A16" s="143"/>
+      <c r="B16" s="144"/>
       <c r="C16" s="20">
         <v>4</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F16" s="78" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="116" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B17" s="117" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="135">
+        <v>99</v>
+      </c>
+      <c r="C17" s="134">
         <v>1</v>
       </c>
-      <c r="D17" s="149" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="149" t="s">
-        <v>129</v>
-      </c>
-      <c r="F17" s="146" t="s">
-        <v>37</v>
+      <c r="D17" s="148" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="148" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="145" t="s">
+        <v>35</v>
       </c>
       <c r="G17" s="120"/>
     </row>
     <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="54"/>
       <c r="B18" s="55"/>
-      <c r="C18" s="138">
+      <c r="C18" s="137">
         <v>2</v>
       </c>
-      <c r="D18" s="139" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" s="139" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="146" t="s">
-        <v>37</v>
+      <c r="D18" s="138" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="138" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="145" t="s">
+        <v>35</v>
       </c>
       <c r="G18" s="56"/>
     </row>
@@ -7065,8 +9928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7105,10 +9968,10 @@
     </row>
     <row r="2" spans="1:7" ht="72.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="62" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C2" s="23">
         <v>1</v>
@@ -7120,13 +9983,13 @@
         <v>8</v>
       </c>
       <c r="F2" s="80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="155"/>
-      <c r="B3" s="156"/>
+      <c r="A3" s="154"/>
+      <c r="B3" s="155"/>
       <c r="C3" s="17">
         <v>2</v>
       </c>
@@ -7137,13 +10000,13 @@
         <v>12</v>
       </c>
       <c r="F3" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="158"/>
+        <v>35</v>
+      </c>
+      <c r="G3" s="157"/>
     </row>
     <row r="4" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="57"/>
-      <c r="B4" s="154"/>
+      <c r="B4" s="153"/>
       <c r="C4" s="13">
         <v>3</v>
       </c>
@@ -7154,200 +10017,200 @@
         <v>14</v>
       </c>
       <c r="F4" s="81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A5" s="155"/>
-      <c r="B5" s="156"/>
+      <c r="A5" s="154"/>
+      <c r="B5" s="155"/>
       <c r="C5" s="17">
         <v>4</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" s="81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A6" s="57"/>
-      <c r="B6" s="154"/>
+      <c r="B6" s="153"/>
       <c r="C6" s="13">
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F6" s="81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="142"/>
-      <c r="B7" s="143"/>
-      <c r="C7" s="140">
+      <c r="A7" s="141"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="139">
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F7" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7" s="130"/>
     </row>
     <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="57"/>
-      <c r="B8" s="154"/>
+      <c r="B8" s="153"/>
       <c r="C8" s="13">
         <v>7</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" s="137" t="s">
-        <v>37</v>
+        <v>133</v>
+      </c>
+      <c r="F8" s="136" t="s">
+        <v>35</v>
       </c>
       <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="142"/>
-      <c r="B9" s="143"/>
-      <c r="C9" s="140">
+      <c r="A9" s="141"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="139">
         <v>8</v>
       </c>
-      <c r="D9" s="141" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="141" t="s">
-        <v>144</v>
+      <c r="D9" s="140" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="140" t="s">
+        <v>135</v>
       </c>
       <c r="F9" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="163" t="s">
-        <v>145</v>
+        <v>35</v>
+      </c>
+      <c r="G9" s="162" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="57"/>
-      <c r="B10" s="154"/>
+      <c r="B10" s="153"/>
       <c r="C10" s="13">
         <v>9</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F10" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="144"/>
-      <c r="B11" s="145"/>
+      <c r="A11" s="143"/>
+      <c r="B11" s="144"/>
       <c r="C11" s="20">
         <v>10</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="F11" s="157" t="s">
-        <v>37</v>
+        <v>140</v>
+      </c>
+      <c r="F11" s="156" t="s">
+        <v>35</v>
       </c>
       <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:7" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="161" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" s="162" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="159">
+      <c r="A12" s="160" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="161" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="158">
         <v>1</v>
       </c>
-      <c r="D12" s="149" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" s="149" t="s">
-        <v>166</v>
+      <c r="D12" s="148" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="148" t="s">
+        <v>154</v>
       </c>
       <c r="F12" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="160"/>
+        <v>35</v>
+      </c>
+      <c r="G12" s="159"/>
     </row>
     <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="57"/>
-      <c r="B13" s="154"/>
+      <c r="B13" s="153"/>
       <c r="C13" s="13">
         <v>2</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="F13" s="137" t="s">
-        <v>37</v>
+        <v>156</v>
+      </c>
+      <c r="F13" s="136" t="s">
+        <v>35</v>
       </c>
       <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="142"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="140">
+      <c r="A14" s="141"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="139">
         <v>3</v>
       </c>
-      <c r="D14" s="141" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" s="141" t="s">
-        <v>157</v>
-      </c>
-      <c r="F14" s="137" t="s">
-        <v>37</v>
+      <c r="D14" s="140" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="140" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="136" t="s">
+        <v>35</v>
       </c>
       <c r="G14" s="130"/>
     </row>
     <row r="15" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="144"/>
-      <c r="B15" s="145"/>
+      <c r="A15" s="143"/>
+      <c r="B15" s="144"/>
       <c r="C15" s="20">
         <v>4</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="F15" s="79" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G15" s="22"/>
     </row>
@@ -7365,8 +10228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F5"/>
+    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7406,10 +10269,10 @@
     </row>
     <row r="2" spans="1:10" ht="72.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C2" s="23">
         <v>1</v>
@@ -7421,11 +10284,11 @@
         <v>8</v>
       </c>
       <c r="F2" s="80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2" s="26"/>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -7441,8 +10304,9 @@
         <v>12</v>
       </c>
       <c r="F3" s="81" t="s">
-        <v>37</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G3" s="255"/>
     </row>
     <row r="4" spans="1:10" ht="190.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="37"/>
@@ -7457,7 +10321,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4" s="16"/>
     </row>
@@ -7468,34 +10332,34 @@
         <v>4</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" s="172" t="s">
-        <v>40</v>
+        <v>161</v>
+      </c>
+      <c r="E5" s="171" t="s">
+        <v>38</v>
       </c>
       <c r="F5" s="91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:10" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="57" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C6" s="59">
         <v>1</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" s="131" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" s="61"/>
     </row>
@@ -7506,89 +10370,89 @@
         <v>2</v>
       </c>
       <c r="D7" s="119" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" s="119" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F7" s="132" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7" s="120"/>
     </row>
     <row r="8" spans="1:10" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="62" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C8" s="64">
         <v>1</v>
       </c>
       <c r="D8" s="65" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F8" s="133" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G8" s="66"/>
     </row>
     <row r="9" spans="1:10" ht="180.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="142"/>
-      <c r="B9" s="143"/>
-      <c r="C9" s="140">
+      <c r="A9" s="141"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="139">
         <v>2</v>
       </c>
-      <c r="D9" s="141" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="141" t="s">
-        <v>80</v>
+      <c r="D9" s="140" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="140" t="s">
+        <v>77</v>
       </c>
       <c r="F9" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G9" s="130"/>
     </row>
     <row r="10" spans="1:10" ht="180.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="144"/>
-      <c r="B10" s="145"/>
+      <c r="A10" s="143"/>
+      <c r="B10" s="144"/>
       <c r="C10" s="20">
         <v>3</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F10" s="79" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:10" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="62" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C11" s="64">
         <v>1</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11" s="133" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11" s="66"/>
     </row>
@@ -7599,34 +10463,34 @@
         <v>2</v>
       </c>
       <c r="D12" s="126" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" s="126" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F12" s="78" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G12" s="127"/>
     </row>
     <row r="13" spans="1:10" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="62" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C13" s="64">
         <v>1</v>
       </c>
       <c r="D13" s="65" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="133" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" s="66"/>
     </row>
@@ -7637,13 +10501,13 @@
         <v>2</v>
       </c>
       <c r="D14" s="129" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E14" s="129" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F14" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G14" s="130"/>
     </row>
@@ -7654,106 +10518,106 @@
         <v>3</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F15" s="78" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:10" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16" s="116" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B16" s="117" t="s">
-        <v>194</v>
-      </c>
-      <c r="C16" s="135">
+        <v>182</v>
+      </c>
+      <c r="C16" s="134">
         <v>1</v>
       </c>
-      <c r="D16" s="169" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="169" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="146" t="s">
-        <v>37</v>
+      <c r="D16" s="168" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="168" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="145" t="s">
+        <v>35</v>
       </c>
       <c r="G16" s="120"/>
     </row>
     <row r="17" spans="1:7" ht="322.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="54"/>
       <c r="B17" s="55"/>
-      <c r="C17" s="138">
+      <c r="C17" s="137">
         <v>2</v>
       </c>
-      <c r="D17" s="139" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="139" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="146" t="s">
-        <v>37</v>
+      <c r="D17" s="138" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="138" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="145" t="s">
+        <v>35</v>
       </c>
       <c r="G17" s="56"/>
     </row>
     <row r="18" spans="1:7" ht="193.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="116"/>
       <c r="B18" s="117"/>
-      <c r="C18" s="135">
+      <c r="C18" s="134">
         <v>3</v>
       </c>
-      <c r="D18" s="169" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="169" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="146" t="s">
-        <v>37</v>
+      <c r="D18" s="168" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="168" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="145" t="s">
+        <v>35</v>
       </c>
       <c r="G18" s="120"/>
     </row>
     <row r="19" spans="1:7" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="62" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C19" s="64">
         <v>1</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F19" s="133" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G19" s="66"/>
     </row>
     <row r="20" spans="1:7" ht="141.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="116"/>
       <c r="B20" s="117"/>
-      <c r="C20" s="135">
+      <c r="C20" s="134">
         <v>2</v>
       </c>
-      <c r="D20" s="169" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="169" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="146" t="s">
-        <v>37</v>
+      <c r="D20" s="168" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="168" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="145" t="s">
+        <v>35</v>
       </c>
       <c r="G20" s="120"/>
     </row>
@@ -7764,13 +10628,13 @@
         <v>3</v>
       </c>
       <c r="D21" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="79" t="s">
         <v>90</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="79" t="s">
-        <v>94</v>
       </c>
       <c r="G21" s="22"/>
     </row>
@@ -7788,8 +10652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7830,10 +10694,10 @@
     </row>
     <row r="2" spans="1:9" ht="55.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="94" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C2" s="24">
         <v>1</v>
@@ -7845,7 +10709,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2" s="96"/>
     </row>
@@ -7856,17 +10720,17 @@
         <v>2</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F3" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G3" s="99"/>
-      <c r="I3" s="148" t="s">
-        <v>57</v>
+      <c r="I3" s="147" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -7876,13 +10740,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F4" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4" s="102"/>
       <c r="I4" s="93"/>
@@ -7894,13 +10758,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5" s="99"/>
     </row>
@@ -7911,13 +10775,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F6" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" s="102"/>
     </row>
@@ -7928,22 +10792,22 @@
         <v>6</v>
       </c>
       <c r="D7" s="112" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E7" s="112" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="136" t="s">
-        <v>37</v>
+        <v>73</v>
+      </c>
+      <c r="F7" s="135" t="s">
+        <v>35</v>
       </c>
       <c r="G7" s="113"/>
     </row>
     <row r="8" spans="1:9" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="114" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="150" t="s">
-        <v>113</v>
+        <v>144</v>
+      </c>
+      <c r="B8" s="149" t="s">
+        <v>104</v>
       </c>
       <c r="C8" s="92">
         <v>1</v>
@@ -7955,13 +10819,13 @@
         <v>8</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G8" s="115"/>
     </row>
     <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="97"/>
-      <c r="B9" s="151"/>
+      <c r="B9" s="150"/>
       <c r="C9" s="18">
         <v>2</v>
       </c>
@@ -7972,13 +10836,13 @@
         <v>12</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G9" s="99"/>
     </row>
     <row r="10" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="97"/>
-      <c r="B10" s="151"/>
+      <c r="B10" s="150"/>
       <c r="C10" s="18">
         <v>3</v>
       </c>
@@ -7989,62 +10853,62 @@
         <v>14</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="99"/>
     </row>
     <row r="11" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="97"/>
-      <c r="B11" s="151"/>
+      <c r="B11" s="150"/>
       <c r="C11" s="18">
         <v>4</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11" s="99"/>
     </row>
     <row r="12" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="105"/>
-      <c r="B12" s="152"/>
+      <c r="B12" s="151"/>
       <c r="C12" s="44">
         <v>5</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F12" s="78" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G12" s="106"/>
     </row>
     <row r="13" spans="1:9" ht="79.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="110" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="151" t="s">
-        <v>114</v>
+        <v>107</v>
+      </c>
+      <c r="B13" s="150" t="s">
+        <v>105</v>
       </c>
       <c r="C13" s="112">
         <v>1</v>
       </c>
-      <c r="D13" s="149" t="s">
+      <c r="D13" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="149" t="s">
+      <c r="E13" s="148" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" s="113"/>
     </row>
@@ -8055,73 +10919,73 @@
         <v>2</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F14" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G14" s="99"/>
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="110"/>
-      <c r="B15" s="151"/>
+      <c r="B15" s="150"/>
       <c r="C15" s="112">
         <v>3</v>
       </c>
       <c r="D15" s="112" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E15" s="112" t="s">
-        <v>181</v>
-      </c>
-      <c r="F15" s="136" t="s">
-        <v>37</v>
+        <v>169</v>
+      </c>
+      <c r="F15" s="135" t="s">
+        <v>35</v>
       </c>
       <c r="G15" s="113"/>
     </row>
     <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="97"/>
-      <c r="B16" s="151"/>
+      <c r="B16" s="150"/>
       <c r="C16" s="112">
         <v>4</v>
       </c>
       <c r="D16" s="112" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E16" s="112" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G16" s="99"/>
     </row>
     <row r="17" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="97"/>
-      <c r="B17" s="151"/>
+      <c r="B17" s="150"/>
       <c r="C17" s="112">
         <v>5</v>
       </c>
       <c r="D17" s="112" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E17" s="112" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F17" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G17" s="99"/>
     </row>
     <row r="18" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" s="114" t="s">
-        <v>153</v>
-      </c>
-      <c r="B18" s="150" t="s">
-        <v>101</v>
+        <v>143</v>
+      </c>
+      <c r="B18" s="149" t="s">
+        <v>97</v>
       </c>
       <c r="C18" s="92">
         <v>1</v>
@@ -8133,13 +10997,13 @@
         <v>8</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="153"/>
+        <v>35</v>
+      </c>
+      <c r="G18" s="152"/>
     </row>
     <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="97"/>
-      <c r="B19" s="151"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="18">
         <v>2</v>
       </c>
@@ -8150,13 +11014,13 @@
         <v>12</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G19" s="99"/>
     </row>
     <row r="20" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A20" s="97"/>
-      <c r="B20" s="151"/>
+      <c r="B20" s="150"/>
       <c r="C20" s="18">
         <v>3</v>
       </c>
@@ -8167,77 +11031,77 @@
         <v>14</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G20" s="99"/>
     </row>
     <row r="21" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A21" s="97"/>
-      <c r="B21" s="151"/>
+      <c r="B21" s="150"/>
       <c r="C21" s="18">
         <v>4</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G21" s="99"/>
     </row>
     <row r="22" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A22" s="110"/>
-      <c r="B22" s="151"/>
+      <c r="B22" s="150"/>
       <c r="C22" s="112">
         <v>5</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F22" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G22" s="113"/>
     </row>
     <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="110"/>
-      <c r="B23" s="170"/>
+      <c r="B23" s="169"/>
       <c r="C23" s="18">
         <v>6</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="F23" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G23" s="99"/>
     </row>
     <row r="24" spans="1:7" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="197"/>
-      <c r="B24" s="145"/>
+      <c r="A24" s="189"/>
+      <c r="B24" s="144"/>
       <c r="C24" s="21">
         <v>7</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="F24" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="196"/>
+        <v>35</v>
+      </c>
+      <c r="G24" s="188"/>
     </row>
     <row r="25" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8256,7 +11120,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A2" sqref="A2:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8295,10 +11159,10 @@
     </row>
     <row r="2" spans="1:7" ht="58.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C2" s="23">
         <v>1</v>
@@ -8310,7 +11174,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2" s="26"/>
     </row>
@@ -8327,7 +11191,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G3"/>
     </row>
@@ -8344,7 +11208,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4" s="16"/>
     </row>
@@ -8355,13 +11219,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" s="81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5" s="19"/>
     </row>
@@ -8372,13 +11236,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F6" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" s="9"/>
     </row>
@@ -8389,55 +11253,55 @@
         <v>6</v>
       </c>
       <c r="D7" s="75" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E7" s="75" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F7" s="83" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G7" s="74"/>
     </row>
     <row r="8" spans="1:7" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="86" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8" s="87" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C8" s="88">
         <v>1</v>
       </c>
       <c r="D8" s="89" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E8" s="89" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="147" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="F8" s="146" t="s">
+        <v>35</v>
       </c>
       <c r="G8" s="90"/>
     </row>
     <row r="9" spans="1:7" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A9" s="72" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" s="85" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C9" s="73">
         <v>1</v>
       </c>
       <c r="D9" s="75" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E9" s="75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F9" s="82" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G9" s="74"/>
     </row>
@@ -8448,13 +11312,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="75" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E10" s="75" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F10" s="82" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="74"/>
     </row>
@@ -8465,13 +11329,13 @@
         <v>3</v>
       </c>
       <c r="D11" s="75" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E11" s="75" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F11" s="82" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11" s="74"/>
     </row>
@@ -8482,13 +11346,13 @@
         <v>4</v>
       </c>
       <c r="D12" s="75" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" s="75" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F12" s="82" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G12" s="74"/>
     </row>
@@ -8499,13 +11363,13 @@
         <v>5</v>
       </c>
       <c r="D13" s="75" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" s="75" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F13" s="82" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" s="74"/>
     </row>
@@ -8516,13 +11380,13 @@
         <v>6</v>
       </c>
       <c r="D14" s="75" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" s="75" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F14" s="82" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G14" s="74"/>
     </row>
@@ -8533,13 +11397,13 @@
         <v>7</v>
       </c>
       <c r="D15" s="75" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E15" s="75" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F15" s="82" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G15" s="74"/>
     </row>
@@ -8550,47 +11414,47 @@
         <v>8</v>
       </c>
       <c r="D16" s="75" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16" s="75" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F16" s="132" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G16" s="74"/>
     </row>
     <row r="17" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="72"/>
       <c r="B17" s="85"/>
-      <c r="C17" s="164">
+      <c r="C17" s="163">
         <v>9</v>
       </c>
-      <c r="D17" s="165" t="s">
-        <v>163</v>
-      </c>
-      <c r="E17" s="165" t="s">
-        <v>159</v>
-      </c>
-      <c r="F17" s="166" t="s">
-        <v>160</v>
+      <c r="D17" s="164" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="164" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="165" t="s">
+        <v>149</v>
       </c>
       <c r="G17" s="74"/>
     </row>
     <row r="18" spans="1:7" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="72"/>
       <c r="B18" s="85"/>
-      <c r="C18" s="164">
+      <c r="C18" s="163">
         <v>10</v>
       </c>
-      <c r="D18" s="165" t="s">
-        <v>162</v>
-      </c>
-      <c r="E18" s="165" t="s">
-        <v>161</v>
-      </c>
-      <c r="F18" s="166" t="s">
-        <v>176</v>
+      <c r="D18" s="164" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="164" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="165" t="s">
+        <v>164</v>
       </c>
       <c r="G18" s="74"/>
     </row>
@@ -8607,8 +11471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8647,85 +11511,85 @@
       <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" ht="58.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="198" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" s="209" t="s">
-        <v>197</v>
-      </c>
-      <c r="C2" s="199">
+      <c r="A2" s="190" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="201" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="191">
         <v>1</v>
       </c>
-      <c r="D2" s="149" t="s">
+      <c r="D2" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="204" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="200"/>
-    </row>
-    <row r="3" spans="1:16" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="F2" s="196" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="192"/>
+    </row>
+    <row r="3" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" s="100"/>
-      <c r="B3" s="210"/>
+      <c r="B3" s="202"/>
       <c r="C3" s="14">
         <v>2</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="205" t="s">
-        <v>37</v>
+        <v>69</v>
+      </c>
+      <c r="F3" s="197" t="s">
+        <v>35</v>
       </c>
       <c r="G3" s="102"/>
     </row>
-    <row r="4" spans="1:16" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="105"/>
-      <c r="B4" s="211"/>
+      <c r="B4" s="203"/>
       <c r="C4" s="44">
         <v>3</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="F4" s="206" t="s">
-        <v>37</v>
+        <v>167</v>
+      </c>
+      <c r="F4" s="198" t="s">
+        <v>35</v>
       </c>
       <c r="G4" s="106"/>
     </row>
     <row r="5" spans="1:16" ht="58.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="100" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" s="210" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" s="201">
+        <v>171</v>
+      </c>
+      <c r="B5" s="202" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="193">
         <v>1</v>
       </c>
-      <c r="D5" s="202" t="s">
+      <c r="D5" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="202" t="s">
+      <c r="E5" s="194" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="207" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="203"/>
-    </row>
-    <row r="6" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="F5" s="199" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="195"/>
+    </row>
+    <row r="6" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="97"/>
-      <c r="B6" s="212"/>
-      <c r="C6" s="192">
+      <c r="B6" s="204"/>
+      <c r="C6" s="184">
         <v>2</v>
       </c>
       <c r="D6" s="18" t="s">
@@ -8734,14 +11598,14 @@
       <c r="E6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="208" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="195"/>
-    </row>
-    <row r="7" spans="1:16" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="F6" s="200" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="187"/>
+    </row>
+    <row r="7" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="100"/>
-      <c r="B7" s="210"/>
+      <c r="B7" s="202"/>
       <c r="C7" s="14">
         <v>3</v>
       </c>
@@ -8751,93 +11615,93 @@
       <c r="E7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="208" t="s">
-        <v>37</v>
+      <c r="F7" s="200" t="s">
+        <v>35</v>
       </c>
       <c r="G7" s="102"/>
     </row>
-    <row r="8" spans="1:16" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="97"/>
-      <c r="B8" s="212"/>
+      <c r="B8" s="204"/>
       <c r="C8" s="18">
         <v>4</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="208" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="F8" s="200" t="s">
+        <v>35</v>
       </c>
       <c r="G8" s="99"/>
     </row>
-    <row r="9" spans="1:16" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="100"/>
-      <c r="B9" s="210"/>
+      <c r="B9" s="202"/>
       <c r="C9" s="14">
         <v>5</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="208" t="s">
-        <v>37</v>
+        <v>69</v>
+      </c>
+      <c r="F9" s="200" t="s">
+        <v>35</v>
       </c>
       <c r="G9" s="102"/>
     </row>
-    <row r="10" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="97"/>
-      <c r="B10" s="212"/>
-      <c r="C10" s="192">
+      <c r="B10" s="204"/>
+      <c r="C10" s="184">
         <v>6</v>
       </c>
-      <c r="D10" s="192" t="s">
-        <v>186</v>
-      </c>
-      <c r="E10" s="192" t="s">
-        <v>187</v>
-      </c>
-      <c r="F10" s="208" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="195"/>
-    </row>
-    <row r="11" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="D10" s="184" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="184" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" s="200" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="187"/>
+    </row>
+    <row r="11" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="100"/>
-      <c r="B11" s="210"/>
-      <c r="C11" s="193">
+      <c r="B11" s="202"/>
+      <c r="C11" s="185">
         <v>7</v>
       </c>
-      <c r="D11" s="193" t="s">
-        <v>188</v>
-      </c>
-      <c r="E11" s="193" t="s">
-        <v>189</v>
-      </c>
-      <c r="F11" s="208" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="194"/>
-    </row>
-    <row r="12" spans="1:16" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="185" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="185" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="200" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="186"/>
+    </row>
+    <row r="12" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="105"/>
-      <c r="B12" s="211"/>
+      <c r="B12" s="203"/>
       <c r="C12" s="44">
         <v>8</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="F12" s="206" t="s">
-        <v>37</v>
+        <v>179</v>
+      </c>
+      <c r="F12" s="198" t="s">
+        <v>35</v>
       </c>
       <c r="G12" s="106"/>
     </row>
@@ -8850,16 +11714,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="48.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="213"/>
+    <col min="2" max="2" width="8.88671875" style="205"/>
     <col min="3" max="3" width="19" style="3" customWidth="1"/>
     <col min="4" max="4" width="39.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="30.77734375" style="3" customWidth="1"/>
@@ -8868,35 +11732,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="208" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="217" t="s">
+      <c r="B1" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="214" t="s">
+      <c r="C1" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="214" t="s">
+      <c r="D1" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="214" t="s">
+      <c r="E1" s="206" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="214" t="s">
+      <c r="F1" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="215" t="s">
+      <c r="G1" s="207" t="s">
         <v>10</v>
       </c>
       <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" ht="72.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="220" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="221" t="s">
-        <v>199</v>
+      <c r="A2" s="212" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="213" t="s">
+        <v>187</v>
       </c>
       <c r="C2" s="24">
         <v>1</v>
@@ -8908,13 +11772,13 @@
         <v>8</v>
       </c>
       <c r="F2" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="222"/>
+        <v>35</v>
+      </c>
+      <c r="G2" s="214"/>
     </row>
     <row r="3" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="223"/>
-      <c r="B3" s="219"/>
+      <c r="A3" s="215"/>
+      <c r="B3" s="211"/>
       <c r="C3" s="18">
         <v>2</v>
       </c>
@@ -8925,13 +11789,13 @@
         <v>12</v>
       </c>
       <c r="F3" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="224"/>
+        <v>35</v>
+      </c>
+      <c r="G3" s="216"/>
     </row>
     <row r="4" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="223"/>
-      <c r="B4" s="219"/>
+      <c r="A4" s="215"/>
+      <c r="B4" s="211"/>
       <c r="C4" s="14">
         <v>3</v>
       </c>
@@ -8942,76 +11806,207 @@
         <v>14</v>
       </c>
       <c r="F4" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="224"/>
+        <v>35</v>
+      </c>
+      <c r="G4" s="216"/>
     </row>
     <row r="5" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="223"/>
-      <c r="B5" s="219"/>
+      <c r="A5" s="215"/>
+      <c r="B5" s="211"/>
       <c r="C5" s="18">
         <v>4</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" s="171" t="s">
-        <v>40</v>
+        <v>161</v>
+      </c>
+      <c r="E5" s="170" t="s">
+        <v>38</v>
       </c>
       <c r="F5" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="224"/>
+        <v>35</v>
+      </c>
+      <c r="G5" s="216"/>
     </row>
     <row r="6" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="223"/>
-      <c r="B6" s="219"/>
+      <c r="A6" s="215"/>
+      <c r="B6" s="211"/>
       <c r="C6" s="8">
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="224"/>
+        <v>190</v>
+      </c>
+      <c r="F6" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="216"/>
     </row>
     <row r="7" spans="1:16" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="225"/>
-      <c r="B7" s="226"/>
+      <c r="A7" s="217"/>
+      <c r="B7" s="218"/>
       <c r="C7" s="11">
         <v>6</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="227"/>
-    </row>
-    <row r="8" spans="1:16" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="223" t="s">
-        <v>205</v>
-      </c>
-      <c r="B8" s="219" t="s">
-        <v>206</v>
-      </c>
-      <c r="C8" s="218">
+        <v>192</v>
+      </c>
+      <c r="F7" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="219"/>
+    </row>
+    <row r="8" spans="1:16" ht="72.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="212" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="213" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="220">
         <v>1</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="228"/>
-      <c r="G8" s="229"/>
-    </row>
+      <c r="D8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="221" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="214"/>
+    </row>
+    <row r="9" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="215"/>
+      <c r="B9" s="211"/>
+      <c r="C9" s="222">
+        <v>2</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="216"/>
+    </row>
+    <row r="10" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="215"/>
+      <c r="B10" s="211"/>
+      <c r="C10" s="223">
+        <v>3</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="216"/>
+    </row>
+    <row r="11" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="215"/>
+      <c r="B11" s="211"/>
+      <c r="C11" s="222">
+        <v>4</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="170" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="216"/>
+    </row>
+    <row r="12" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="215"/>
+      <c r="B12" s="211"/>
+      <c r="C12" s="224">
+        <v>5</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F12" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="216"/>
+    </row>
+    <row r="13" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="215"/>
+      <c r="B13" s="211"/>
+      <c r="C13" s="224">
+        <v>6</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="216"/>
+    </row>
+    <row r="14" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="215"/>
+      <c r="B14" s="211"/>
+      <c r="C14" s="224">
+        <v>7</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="216"/>
+    </row>
+    <row r="15" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="217"/>
+      <c r="B15" s="218"/>
+      <c r="C15" s="225">
+        <v>8</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F15" s="156" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="219"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Tests/TC - projekt z Gospodarki.xlsx
+++ b/Tests/TC - projekt z Gospodarki.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" tabRatio="711" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" tabRatio="711" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Wszystkie TCs" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="274">
   <si>
     <t>Nazwa TC</t>
   </si>
@@ -947,6 +947,24 @@
   </si>
   <si>
     <t>Wypełnij wszystkie pola z maksymalną długość jaka jest możliwa oraz dodaj zdjęcie. Naciśnij przycisk "Dodaj ofertę".</t>
+  </si>
+  <si>
+    <t>W pole "Tytuł oferty" wprowadź tytuł wybranej oferty i naciśnij przycisk "Szukaj".</t>
+  </si>
+  <si>
+    <t>W polu "Typ oferty" wybierz opcje z możliwych, która cię interesuje i naciśnij przycisk "Szukaj".</t>
+  </si>
+  <si>
+    <t>W pole "Miejscowość" wprowadź tytuł wybranej oferty i naciśnij przycisk "Szukaj".</t>
+  </si>
+  <si>
+    <t>W pole "Przeznaczenie" wybierz interesującą cię opcje z możliwych i naciśnij przycisk "Szukaj".</t>
+  </si>
+  <si>
+    <t>W pole "Maksymalna cena (zł)" wprowadź maksymalną cenę dla oferty i naciśnij przycisk "Szukaj".</t>
+  </si>
+  <si>
+    <t>Guzik "Apcetuj" jest nieaktywny</t>
   </si>
 </sst>
 </file>
@@ -1760,7 +1778,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2677,6 +2695,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2687,217 +2708,6 @@
     <cellStyle name="Zły" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="107">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thick">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thick">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -3920,6 +3730,197 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -3928,6 +3929,26 @@
           <color auto="1"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -5076,24 +5097,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabela10" displayName="Tabela10" ref="A1:G11" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabela10" displayName="Tabela10" ref="A1:G11" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15">
   <autoFilter ref="A1:G11"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Nazwa TC" dataDxfId="22"/>
-    <tableColumn id="2" name="TC ID" dataDxfId="21"/>
-    <tableColumn id="3" name="Numer kroku" dataDxfId="20"/>
-    <tableColumn id="4" name="Czynność" dataDxfId="19"/>
-    <tableColumn id="5" name="Oczekiwany rezultat" dataDxfId="18"/>
-    <tableColumn id="6" name="Aktualny rezultat" dataDxfId="17" dataCellStyle="Dobry"/>
-    <tableColumn id="7" name="Dodatkowy opis" dataDxfId="16"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabela11" displayName="Tabela11" ref="A1:G8" totalsRowShown="0" headerRowDxfId="15">
-  <autoFilter ref="A1:G8"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Nazwa TC" dataDxfId="14"/>
     <tableColumn id="2" name="TC ID" dataDxfId="13"/>
@@ -5102,6 +5107,22 @@
     <tableColumn id="5" name="Oczekiwany rezultat" dataDxfId="10"/>
     <tableColumn id="6" name="Aktualny rezultat" dataDxfId="9" dataCellStyle="Dobry"/>
     <tableColumn id="7" name="Dodatkowy opis" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabela11" displayName="Tabela11" ref="A1:G8" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:G8"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Nazwa TC" dataDxfId="6"/>
+    <tableColumn id="2" name="TC ID" dataDxfId="5"/>
+    <tableColumn id="3" name="Numer kroku" dataDxfId="4"/>
+    <tableColumn id="4" name="Czynność" dataDxfId="3"/>
+    <tableColumn id="5" name="Oczekiwany rezultat" dataDxfId="2"/>
+    <tableColumn id="6" name="Aktualny rezultat" dataDxfId="1" dataCellStyle="Dobry"/>
+    <tableColumn id="7" name="Dodatkowy opis" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5172,64 +5193,64 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:G35" totalsRowShown="0" headerRowDxfId="58" dataDxfId="4" headerRowBorderDxfId="57" tableBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:G35" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55">
   <autoFilter ref="A1:G35"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Nazwa TC" dataDxfId="7"/>
-    <tableColumn id="2" name="TC ID" dataDxfId="3"/>
-    <tableColumn id="3" name="Numer kroku" dataDxfId="6"/>
-    <tableColumn id="4" name="Czynność" dataDxfId="2"/>
-    <tableColumn id="5" name="Oczekiwany rezultat" dataDxfId="1"/>
-    <tableColumn id="6" name="Aktualny rezultat" dataDxfId="0" dataCellStyle="Zły"/>
-    <tableColumn id="7" name="Dodatkowy opis" dataDxfId="5"/>
+    <tableColumn id="1" name="Nazwa TC" dataDxfId="54"/>
+    <tableColumn id="2" name="TC ID" dataDxfId="53"/>
+    <tableColumn id="3" name="Numer kroku" dataDxfId="52"/>
+    <tableColumn id="4" name="Czynność" dataDxfId="51"/>
+    <tableColumn id="5" name="Oczekiwany rezultat" dataDxfId="50"/>
+    <tableColumn id="6" name="Aktualny rezultat" dataDxfId="49" dataCellStyle="Zły"/>
+    <tableColumn id="7" name="Dodatkowy opis" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:G18" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A1:G18" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44">
   <autoFilter ref="A1:G18"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Nazwa TC" dataDxfId="51"/>
-    <tableColumn id="2" name="TC ID" dataDxfId="50"/>
-    <tableColumn id="3" name="Numer kroku" dataDxfId="49"/>
-    <tableColumn id="4" name="Czynność" dataDxfId="48"/>
-    <tableColumn id="5" name="Oczekiwany rezultat" dataDxfId="47"/>
-    <tableColumn id="6" name="Aktualny rezultat" dataDxfId="46" dataCellStyle="Dobry"/>
-    <tableColumn id="7" name="Dodatkowy opis" dataDxfId="45"/>
+    <tableColumn id="1" name="Nazwa TC" dataDxfId="43"/>
+    <tableColumn id="2" name="TC ID" dataDxfId="42"/>
+    <tableColumn id="3" name="Numer kroku" dataDxfId="41"/>
+    <tableColumn id="4" name="Czynność" dataDxfId="40"/>
+    <tableColumn id="5" name="Oczekiwany rezultat" dataDxfId="39"/>
+    <tableColumn id="6" name="Aktualny rezultat" dataDxfId="38" dataCellStyle="Dobry"/>
+    <tableColumn id="7" name="Dodatkowy opis" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabela8" displayName="Tabela8" ref="A1:G15" totalsRowShown="0" headerRowDxfId="44" headerRowBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabela8" displayName="Tabela8" ref="A1:G15" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35">
   <autoFilter ref="A1:G15"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Nazwa TC" dataDxfId="42"/>
-    <tableColumn id="2" name="TC ID" dataDxfId="41"/>
-    <tableColumn id="3" name="Numer kroku" dataDxfId="40"/>
-    <tableColumn id="4" name="Czynność" dataDxfId="39"/>
-    <tableColumn id="5" name="Oczekiwany rezultat" dataDxfId="38"/>
-    <tableColumn id="6" name="Aktualny rezultat" dataDxfId="37" dataCellStyle="Dobry"/>
-    <tableColumn id="7" name="Dodatkowy opis" dataDxfId="36"/>
+    <tableColumn id="1" name="Nazwa TC" dataDxfId="34"/>
+    <tableColumn id="2" name="TC ID" dataDxfId="33"/>
+    <tableColumn id="3" name="Numer kroku" dataDxfId="32"/>
+    <tableColumn id="4" name="Czynność" dataDxfId="31"/>
+    <tableColumn id="5" name="Oczekiwany rezultat" dataDxfId="30"/>
+    <tableColumn id="6" name="Aktualny rezultat" dataDxfId="29" dataCellStyle="Dobry"/>
+    <tableColumn id="7" name="Dodatkowy opis" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabela9" displayName="Tabela9" ref="A1:G17" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabela9" displayName="Tabela9" ref="A1:G17" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26">
   <autoFilter ref="A1:G17"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Nazwa TC" dataDxfId="33"/>
-    <tableColumn id="2" name="TC ID" dataDxfId="32"/>
-    <tableColumn id="3" name="Numer kroku" dataDxfId="31"/>
-    <tableColumn id="4" name="Czynność" dataDxfId="30"/>
-    <tableColumn id="5" name="Oczekiwany rezultat" dataDxfId="29"/>
-    <tableColumn id="6" name="Aktualny rezultat" dataDxfId="28" dataCellStyle="Dobry"/>
-    <tableColumn id="7" name="Dodatkowy opis" dataDxfId="27"/>
+    <tableColumn id="1" name="Nazwa TC" dataDxfId="25"/>
+    <tableColumn id="2" name="TC ID" dataDxfId="24"/>
+    <tableColumn id="3" name="Numer kroku" dataDxfId="23"/>
+    <tableColumn id="4" name="Czynność" dataDxfId="22"/>
+    <tableColumn id="5" name="Oczekiwany rezultat" dataDxfId="21"/>
+    <tableColumn id="6" name="Aktualny rezultat" dataDxfId="20" dataCellStyle="Dobry"/>
+    <tableColumn id="7" name="Dodatkowy opis" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5534,7 +5555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G177"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
@@ -9465,8 +9486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9818,8 +9839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10080,8 +10101,8 @@
       <c r="E14" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F14" s="134" t="s">
-        <v>35</v>
+      <c r="F14" s="308" t="s">
+        <v>273</v>
       </c>
       <c r="G14" s="15"/>
     </row>
@@ -10169,8 +10190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10450,8 +10471,8 @@
       <c r="E15" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="F15" s="77" t="s">
-        <v>155</v>
+      <c r="F15" s="76" t="s">
+        <v>35</v>
       </c>
       <c r="G15" s="21"/>
     </row>
@@ -10469,7 +10490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -10893,8 +10914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11372,7 +11393,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>247</v>
@@ -11403,14 +11424,14 @@
       </c>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="62.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="29"/>
       <c r="B28" s="30"/>
       <c r="C28" s="10">
         <v>2</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>258</v>
@@ -11448,13 +11469,13 @@
         <v>2</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="F30" s="77" t="s">
-        <v>266</v>
+      <c r="F30" s="76" t="s">
+        <v>35</v>
       </c>
       <c r="G30" s="12"/>
     </row>
@@ -11486,7 +11507,7 @@
         <v>2</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>262</v>
@@ -11524,13 +11545,13 @@
         <v>2</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="F34" s="77" t="s">
-        <v>265</v>
+      <c r="F34" s="76" t="s">
+        <v>35</v>
       </c>
       <c r="G34" s="12"/>
     </row>
@@ -11556,8 +11577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11908,7 +11929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -12153,7 +12174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -12370,7 +12391,7 @@
       </c>
       <c r="G11" s="214"/>
     </row>
-    <row r="12" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="213"/>
       <c r="B12" s="209"/>
       <c r="C12" s="222">

--- a/Tests/TC - projekt z Gospodarki.xlsx
+++ b/Tests/TC - projekt z Gospodarki.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" tabRatio="711" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" tabRatio="711"/>
   </bookViews>
   <sheets>
     <sheet name="Wszystkie TCs" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="266">
   <si>
     <t>Nazwa TC</t>
   </si>
@@ -559,9 +559,6 @@
     <t>W polu "Komentarz" podaj maksymalny ciąg znaków jaki jest możliwy.</t>
   </si>
   <si>
-    <t>Komentarz wychodzi poza ramy komentarzy.</t>
-  </si>
-  <si>
     <t>Zaloguj się na pocztę, która została podana podczas rejestracji i otwórz nowego maila z hasłem do nowo utworzonego konta.</t>
   </si>
   <si>
@@ -883,9 +880,6 @@
     <t>Powinnien  istnieć taki wpis w tabeli.</t>
   </si>
   <si>
-    <t>W pole "Tytuł oferty" wprowadź tytuł wybranej oferty.</t>
-  </si>
-  <si>
     <t>Powinny zostać wyśiwetlone te oferty które posiadają podany ciąg znaków w tytule</t>
   </si>
   <si>
@@ -916,34 +910,16 @@
     <t>048</t>
   </si>
   <si>
-    <t>W polu "Typ oferty" wybierz opcje z możliwych, która cię interesuje.</t>
-  </si>
-  <si>
     <t>Powinny zostać wyśiwetlone te oferty które znajdują się w wybranym typie.</t>
   </si>
   <si>
-    <t>W pole "Miejscowość" wprowadź tytuł wybranej oferty.</t>
-  </si>
-  <si>
     <t>Powinny zostać wyśiwetlone te oferty które posiadają podany ciąg znaków w polu Miejscowość.</t>
   </si>
   <si>
-    <t>W pole "Przeznaczenie" wybierz interesującą cię opcje z możliwych.</t>
-  </si>
-  <si>
     <t>Powinny zostać wyśiwetlone te oferty które posiadają przeznaczenie identyczne do wybranego.</t>
   </si>
   <si>
-    <t>W pole "Maksymalna cena (zł)" wprowadź maksymalną cenę dla oferty.</t>
-  </si>
-  <si>
     <t>Powinny zostać wyśiwetlone te oferty które mają mniejszą bądź równą cenę od ceny wprowadzonej.</t>
-  </si>
-  <si>
-    <t>Dla wartości 999 999 zł wciąż są wyświetlana oferty za 1 000 000 zł</t>
-  </si>
-  <si>
-    <t>Po wprowadzeniu literki "W" zostają oferty z miastem na W, ale gdy potem dodasz "r" nie ma żadnej oferty która by się zaczynała na "Wr".</t>
   </si>
   <si>
     <t>Wypełnij wszystkie pola z maksymalną długość jaka jest możliwa oraz dodaj zdjęcie. Naciśnij przycisk "Dodaj ofertę".</t>
@@ -5555,8 +5531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G177"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G184" sqref="G184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5658,7 +5634,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F5" s="75" t="s">
         <v>35</v>
@@ -5689,10 +5665,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>157</v>
       </c>
       <c r="F7" s="76" t="s">
         <v>35</v>
@@ -5870,7 +5846,7 @@
         <v>15</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F17" s="75" t="s">
         <v>53</v>
@@ -6438,8 +6414,8 @@
       <c r="E49" s="136" t="s">
         <v>144</v>
       </c>
-      <c r="F49" s="163" t="s">
-        <v>155</v>
+      <c r="F49" s="133" t="s">
+        <v>35</v>
       </c>
       <c r="G49" s="54"/>
     </row>
@@ -6505,7 +6481,7 @@
         <v>4</v>
       </c>
       <c r="D53" s="278" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E53" s="278" t="s">
         <v>38</v>
@@ -6613,7 +6589,7 @@
         <v>50</v>
       </c>
       <c r="B59" s="61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C59" s="62">
         <v>1</v>
@@ -6651,7 +6627,7 @@
         <v>76</v>
       </c>
       <c r="B61" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C61" s="62">
         <v>1</v>
@@ -6706,7 +6682,7 @@
         <v>80</v>
       </c>
       <c r="B64" s="115" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C64" s="132">
         <v>1</v>
@@ -6761,7 +6737,7 @@
         <v>86</v>
       </c>
       <c r="B67" s="61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C67" s="62">
         <v>1</v>
@@ -6979,7 +6955,7 @@
         <v>4</v>
       </c>
       <c r="D79" s="254" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E79" s="254" t="s">
         <v>38</v>
@@ -7033,7 +7009,7 @@
         <v>2</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E82" s="17" t="s">
         <v>69</v>
@@ -7053,7 +7029,7 @@
         <v>140</v>
       </c>
       <c r="E83" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F83" s="133" t="s">
         <v>35</v>
@@ -7084,10 +7060,10 @@
         <v>5</v>
       </c>
       <c r="D85" s="110" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E85" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F85" s="75" t="s">
         <v>35</v>
@@ -7156,7 +7132,7 @@
         <v>4</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E89" s="17" t="s">
         <v>38</v>
@@ -7173,7 +7149,7 @@
         <v>5</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E90" s="17" t="s">
         <v>69</v>
@@ -7349,7 +7325,7 @@
         <v>58</v>
       </c>
       <c r="B100" s="83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C100" s="71">
         <v>1</v>
@@ -7508,22 +7484,22 @@
         <v>10</v>
       </c>
       <c r="D109" s="162" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E109" s="162" t="s">
         <v>148</v>
       </c>
       <c r="F109" s="163" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G109" s="72"/>
     </row>
     <row r="110" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A110" s="251" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B110" s="260" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C110" s="252">
         <v>1</v>
@@ -7563,10 +7539,10 @@
         <v>3</v>
       </c>
       <c r="D112" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="E112" s="42" t="s">
         <v>163</v>
-      </c>
-      <c r="E112" s="42" t="s">
-        <v>164</v>
       </c>
       <c r="F112" s="196" t="s">
         <v>35</v>
@@ -7575,10 +7551,10 @@
     </row>
     <row r="113" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A113" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B113" s="227" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C113" s="228">
         <v>1</v>
@@ -7635,7 +7611,7 @@
         <v>4</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E116" s="17" t="s">
         <v>38</v>
@@ -7652,7 +7628,7 @@
         <v>5</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E117" s="14" t="s">
         <v>69</v>
@@ -7669,10 +7645,10 @@
         <v>6</v>
       </c>
       <c r="D118" s="182" t="s">
+        <v>170</v>
+      </c>
+      <c r="E118" s="182" t="s">
         <v>171</v>
-      </c>
-      <c r="E118" s="182" t="s">
-        <v>172</v>
       </c>
       <c r="F118" s="198" t="s">
         <v>35</v>
@@ -7686,10 +7662,10 @@
         <v>7</v>
       </c>
       <c r="D119" s="183" t="s">
+        <v>172</v>
+      </c>
+      <c r="E119" s="183" t="s">
         <v>173</v>
-      </c>
-      <c r="E119" s="183" t="s">
-        <v>174</v>
       </c>
       <c r="F119" s="198" t="s">
         <v>35</v>
@@ -7703,10 +7679,10 @@
         <v>8</v>
       </c>
       <c r="D120" s="110" t="s">
+        <v>174</v>
+      </c>
+      <c r="E120" s="110" t="s">
         <v>175</v>
-      </c>
-      <c r="E120" s="110" t="s">
-        <v>176</v>
       </c>
       <c r="F120" s="263" t="s">
         <v>35</v>
@@ -7715,10 +7691,10 @@
     </row>
     <row r="121" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A121" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B121" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C121" s="22">
         <v>1</v>
@@ -7775,7 +7751,7 @@
         <v>4</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E124" s="168" t="s">
         <v>38</v>
@@ -7792,10 +7768,10 @@
         <v>5</v>
       </c>
       <c r="D125" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E125" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>187</v>
       </c>
       <c r="F125" s="75" t="s">
         <v>35</v>
@@ -7809,10 +7785,10 @@
         <v>6</v>
       </c>
       <c r="D126" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E126" s="11" t="s">
         <v>188</v>
-      </c>
-      <c r="E126" s="11" t="s">
-        <v>189</v>
       </c>
       <c r="F126" s="76" t="s">
         <v>35</v>
@@ -7821,10 +7797,10 @@
     </row>
     <row r="127" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A127" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="B127" s="26" t="s">
         <v>190</v>
-      </c>
-      <c r="B127" s="26" t="s">
-        <v>191</v>
       </c>
       <c r="C127" s="230">
         <v>1</v>
@@ -7881,7 +7857,7 @@
         <v>4</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E130" s="168" t="s">
         <v>38</v>
@@ -7898,10 +7874,10 @@
         <v>5</v>
       </c>
       <c r="D131" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E131" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="E131" s="8" t="s">
-        <v>187</v>
       </c>
       <c r="F131" s="134" t="s">
         <v>35</v>
@@ -7915,10 +7891,10 @@
         <v>6</v>
       </c>
       <c r="D132" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E132" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="F132" s="134" t="s">
         <v>35</v>
@@ -7932,10 +7908,10 @@
         <v>7</v>
       </c>
       <c r="D133" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E133" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>195</v>
       </c>
       <c r="F133" s="134" t="s">
         <v>35</v>
@@ -7949,10 +7925,10 @@
         <v>8</v>
       </c>
       <c r="D134" s="162" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E134" s="162" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F134" s="143" t="s">
         <v>35</v>
@@ -7961,10 +7937,10 @@
     </row>
     <row r="135" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A135" s="60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B135" s="61" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C135" s="22">
         <v>1</v>
@@ -8021,10 +7997,10 @@
         <v>4</v>
       </c>
       <c r="D138" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E138" s="168" t="s">
         <v>201</v>
-      </c>
-      <c r="E138" s="168" t="s">
-        <v>202</v>
       </c>
       <c r="F138" s="75" t="s">
         <v>35</v>
@@ -8038,10 +8014,10 @@
         <v>5</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F139" s="75" t="s">
         <v>35</v>
@@ -8055,10 +8031,10 @@
         <v>6</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F140" s="75" t="s">
         <v>35</v>
@@ -8072,10 +8048,10 @@
         <v>7</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F141" s="134" t="s">
         <v>35</v>
@@ -8089,10 +8065,10 @@
         <v>8</v>
       </c>
       <c r="D142" s="162" t="s">
+        <v>210</v>
+      </c>
+      <c r="E142" s="162" t="s">
         <v>211</v>
-      </c>
-      <c r="E142" s="162" t="s">
-        <v>212</v>
       </c>
       <c r="F142" s="143" t="s">
         <v>35</v>
@@ -8101,19 +8077,19 @@
     </row>
     <row r="143" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A143" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B143" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C143" s="247">
         <v>1</v>
       </c>
       <c r="D143" s="240" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E143" s="240" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F143" s="131" t="s">
         <v>35</v>
@@ -8127,10 +8103,10 @@
         <v>2</v>
       </c>
       <c r="D144" s="162" t="s">
+        <v>206</v>
+      </c>
+      <c r="E144" s="162" t="s">
         <v>207</v>
-      </c>
-      <c r="E144" s="162" t="s">
-        <v>208</v>
       </c>
       <c r="F144" s="143" t="s">
         <v>35</v>
@@ -8144,10 +8120,10 @@
         <v>3</v>
       </c>
       <c r="D145" s="162" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E145" s="162" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F145" s="143" t="s">
         <v>35</v>
@@ -8161,10 +8137,10 @@
         <v>4</v>
       </c>
       <c r="D146" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E146" s="11" t="s">
         <v>214</v>
-      </c>
-      <c r="E146" s="11" t="s">
-        <v>215</v>
       </c>
       <c r="F146" s="154" t="s">
         <v>35</v>
@@ -8173,19 +8149,19 @@
     </row>
     <row r="147" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A147" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B147" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C147" s="247">
         <v>1</v>
       </c>
       <c r="D147" s="240" t="s">
+        <v>216</v>
+      </c>
+      <c r="E147" s="240" t="s">
         <v>217</v>
-      </c>
-      <c r="E147" s="240" t="s">
-        <v>218</v>
       </c>
       <c r="F147" s="131" t="s">
         <v>35</v>
@@ -8199,10 +8175,10 @@
         <v>2</v>
       </c>
       <c r="D148" s="162" t="s">
+        <v>218</v>
+      </c>
+      <c r="E148" s="162" t="s">
         <v>219</v>
-      </c>
-      <c r="E148" s="162" t="s">
-        <v>220</v>
       </c>
       <c r="F148" s="143" t="s">
         <v>35</v>
@@ -8216,10 +8192,10 @@
         <v>3</v>
       </c>
       <c r="D149" s="162" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E149" s="162" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F149" s="143" t="s">
         <v>35</v>
@@ -8233,10 +8209,10 @@
         <v>4</v>
       </c>
       <c r="D150" s="162" t="s">
+        <v>221</v>
+      </c>
+      <c r="E150" s="162" t="s">
         <v>222</v>
-      </c>
-      <c r="E150" s="162" t="s">
-        <v>223</v>
       </c>
       <c r="F150" s="143" t="s">
         <v>35</v>
@@ -8245,7 +8221,7 @@
     </row>
     <row r="151" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A151" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B151" s="26">
         <v>91</v>
@@ -8305,10 +8281,10 @@
         <v>4</v>
       </c>
       <c r="D154" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E154" s="168" t="s">
         <v>201</v>
-      </c>
-      <c r="E154" s="168" t="s">
-        <v>202</v>
       </c>
       <c r="F154" s="79" t="s">
         <v>35</v>
@@ -8322,10 +8298,10 @@
         <v>5</v>
       </c>
       <c r="D155" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E155" s="14" t="s">
         <v>225</v>
-      </c>
-      <c r="E155" s="14" t="s">
-        <v>226</v>
       </c>
       <c r="F155" s="79" t="s">
         <v>35</v>
@@ -8339,10 +8315,10 @@
         <v>6</v>
       </c>
       <c r="D156" s="138" t="s">
+        <v>227</v>
+      </c>
+      <c r="E156" s="138" t="s">
         <v>228</v>
-      </c>
-      <c r="E156" s="138" t="s">
-        <v>229</v>
       </c>
       <c r="F156" s="134" t="s">
         <v>35</v>
@@ -8356,10 +8332,10 @@
         <v>7</v>
       </c>
       <c r="D157" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="E157" s="20" t="s">
         <v>230</v>
-      </c>
-      <c r="E157" s="20" t="s">
-        <v>231</v>
       </c>
       <c r="F157" s="154" t="s">
         <v>35</v>
@@ -8368,7 +8344,7 @@
     </row>
     <row r="158" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A158" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B158" s="26">
         <v>92</v>
@@ -8377,10 +8353,10 @@
         <v>1</v>
       </c>
       <c r="D158" s="146" t="s">
+        <v>232</v>
+      </c>
+      <c r="E158" s="146" t="s">
         <v>233</v>
-      </c>
-      <c r="E158" s="146" t="s">
-        <v>234</v>
       </c>
       <c r="F158" s="219" t="s">
         <v>35</v>
@@ -8394,10 +8370,10 @@
         <v>2</v>
       </c>
       <c r="D159" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="E159" s="14" t="s">
         <v>235</v>
-      </c>
-      <c r="E159" s="14" t="s">
-        <v>236</v>
       </c>
       <c r="F159" s="134" t="s">
         <v>35</v>
@@ -8411,10 +8387,10 @@
         <v>3</v>
       </c>
       <c r="D160" s="166" t="s">
+        <v>236</v>
+      </c>
+      <c r="E160" s="166" t="s">
         <v>237</v>
-      </c>
-      <c r="E160" s="166" t="s">
-        <v>238</v>
       </c>
       <c r="F160" s="143" t="s">
         <v>35</v>
@@ -8423,7 +8399,7 @@
     </row>
     <row r="161" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A161" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B161" s="26">
         <v>101</v>
@@ -8432,10 +8408,10 @@
         <v>1</v>
       </c>
       <c r="D161" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E161" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="E161" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="F161" s="74" t="s">
         <v>35</v>
@@ -8500,10 +8476,10 @@
         <v>5</v>
       </c>
       <c r="D165" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E165" s="254" t="s">
         <v>201</v>
-      </c>
-      <c r="E165" s="254" t="s">
-        <v>202</v>
       </c>
       <c r="F165" s="79" t="s">
         <v>35</v>
@@ -8517,10 +8493,10 @@
         <v>6</v>
       </c>
       <c r="D166" s="138" t="s">
+        <v>241</v>
+      </c>
+      <c r="E166" s="138" t="s">
         <v>242</v>
-      </c>
-      <c r="E166" s="138" t="s">
-        <v>243</v>
       </c>
       <c r="F166" s="79" t="s">
         <v>35</v>
@@ -8534,10 +8510,10 @@
         <v>7</v>
       </c>
       <c r="D167" s="162" t="s">
+        <v>243</v>
+      </c>
+      <c r="E167" s="162" t="s">
         <v>244</v>
-      </c>
-      <c r="E167" s="162" t="s">
-        <v>245</v>
       </c>
       <c r="F167" s="133" t="s">
         <v>35</v>
@@ -8546,7 +8522,7 @@
     </row>
     <row r="168" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A168" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B168" s="26" t="s">
         <v>95</v>
@@ -8565,17 +8541,17 @@
       </c>
       <c r="G168" s="6"/>
     </row>
-    <row r="169" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="29"/>
       <c r="B169" s="30"/>
       <c r="C169" s="10">
         <v>2</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="E169" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F169" s="76" t="s">
         <v>35</v>
@@ -8584,10 +8560,10 @@
     </row>
     <row r="170" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A170" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B170" s="26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C170" s="4">
         <v>1</v>
@@ -8603,17 +8579,17 @@
       </c>
       <c r="G170" s="6"/>
     </row>
-    <row r="171" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="29"/>
       <c r="B171" s="30"/>
       <c r="C171" s="10">
         <v>2</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E171" s="11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F171" s="76" t="s">
         <v>35</v>
@@ -8622,10 +8598,10 @@
     </row>
     <row r="172" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A172" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B172" s="26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C172" s="4">
         <v>1</v>
@@ -8641,29 +8617,29 @@
       </c>
       <c r="G172" s="6"/>
     </row>
-    <row r="173" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="29"/>
       <c r="B173" s="30"/>
       <c r="C173" s="10">
         <v>2</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="F173" s="77" t="s">
-        <v>266</v>
+        <v>256</v>
+      </c>
+      <c r="F173" s="76" t="s">
+        <v>35</v>
       </c>
       <c r="G173" s="12"/>
     </row>
     <row r="174" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A174" s="25" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B174" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C174" s="4">
         <v>1</v>
@@ -8679,17 +8655,17 @@
       </c>
       <c r="G174" s="6"/>
     </row>
-    <row r="175" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="29"/>
       <c r="B175" s="30"/>
       <c r="C175" s="10">
         <v>2</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E175" s="11" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F175" s="76" t="s">
         <v>35</v>
@@ -8698,10 +8674,10 @@
     </row>
     <row r="176" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A176" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B176" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C176" s="4">
         <v>1</v>
@@ -8717,20 +8693,20 @@
       </c>
       <c r="G176" s="6"/>
     </row>
-    <row r="177" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A177" s="27"/>
       <c r="B177" s="82"/>
       <c r="C177" s="161">
         <v>2</v>
       </c>
       <c r="D177" s="162" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E177" s="162" t="s">
-        <v>264</v>
-      </c>
-      <c r="F177" s="163" t="s">
-        <v>265</v>
+        <v>258</v>
+      </c>
+      <c r="F177" s="133" t="s">
+        <v>35</v>
       </c>
       <c r="G177" s="72"/>
     </row>
@@ -8788,10 +8764,10 @@
     </row>
     <row r="2" spans="1:16" ht="101.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="233" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B2" s="234" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" s="23">
         <v>1</v>
@@ -8848,10 +8824,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="168" t="s">
         <v>201</v>
-      </c>
-      <c r="E5" s="168" t="s">
-        <v>202</v>
       </c>
       <c r="F5" s="75" t="s">
         <v>35</v>
@@ -8865,10 +8841,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F6" s="75" t="s">
         <v>35</v>
@@ -8882,10 +8858,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F7" s="75" t="s">
         <v>35</v>
@@ -8899,10 +8875,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F8" s="134" t="s">
         <v>35</v>
@@ -8916,10 +8892,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="162" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="162" t="s">
         <v>211</v>
-      </c>
-      <c r="E9" s="162" t="s">
-        <v>212</v>
       </c>
       <c r="F9" s="143" t="s">
         <v>35</v>
@@ -8928,19 +8904,19 @@
     </row>
     <row r="10" spans="1:16" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="210" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B10" s="211" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C10" s="240">
         <v>1</v>
       </c>
       <c r="D10" s="240" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E10" s="240" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F10" s="131" t="s">
         <v>35</v>
@@ -8954,10 +8930,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="162" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="162" t="s">
         <v>207</v>
-      </c>
-      <c r="E11" s="162" t="s">
-        <v>208</v>
       </c>
       <c r="F11" s="143" t="s">
         <v>35</v>
@@ -8971,10 +8947,10 @@
         <v>3</v>
       </c>
       <c r="D12" s="162" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E12" s="162" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F12" s="143" t="s">
         <v>35</v>
@@ -8988,10 +8964,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>214</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>215</v>
       </c>
       <c r="F13" s="154" t="s">
         <v>35</v>
@@ -9000,19 +8976,19 @@
     </row>
     <row r="14" spans="1:16" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A14" s="210" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B14" s="211" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C14" s="240">
         <v>1</v>
       </c>
       <c r="D14" s="240" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" s="240" t="s">
         <v>217</v>
-      </c>
-      <c r="E14" s="240" t="s">
-        <v>218</v>
       </c>
       <c r="F14" s="131" t="s">
         <v>35</v>
@@ -9026,10 +9002,10 @@
         <v>2</v>
       </c>
       <c r="D15" s="162" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" s="162" t="s">
         <v>219</v>
-      </c>
-      <c r="E15" s="162" t="s">
-        <v>220</v>
       </c>
       <c r="F15" s="143" t="s">
         <v>35</v>
@@ -9043,10 +9019,10 @@
         <v>3</v>
       </c>
       <c r="D16" s="162" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E16" s="162" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F16" s="143" t="s">
         <v>35</v>
@@ -9060,10 +9036,10 @@
         <v>4</v>
       </c>
       <c r="D17" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>222</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>223</v>
       </c>
       <c r="F17" s="154" t="s">
         <v>35</v>
@@ -9123,7 +9099,7 @@
     </row>
     <row r="2" spans="1:7" ht="144.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" s="247">
         <v>91</v>
@@ -9183,10 +9159,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="168" t="s">
         <v>201</v>
-      </c>
-      <c r="E5" s="168" t="s">
-        <v>202</v>
       </c>
       <c r="F5" s="79" t="s">
         <v>35</v>
@@ -9200,10 +9176,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>225</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>226</v>
       </c>
       <c r="F6" s="79" t="s">
         <v>35</v>
@@ -9217,10 +9193,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="138" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" s="138" t="s">
         <v>228</v>
-      </c>
-      <c r="E7" s="138" t="s">
-        <v>229</v>
       </c>
       <c r="F7" s="134" t="s">
         <v>35</v>
@@ -9234,10 +9210,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>230</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>231</v>
       </c>
       <c r="F8" s="154" t="s">
         <v>35</v>
@@ -9246,7 +9222,7 @@
     </row>
     <row r="9" spans="1:7" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B9" s="247">
         <v>92</v>
@@ -9255,10 +9231,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="146" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="146" t="s">
         <v>233</v>
-      </c>
-      <c r="E9" s="146" t="s">
-        <v>234</v>
       </c>
       <c r="F9" s="219" t="s">
         <v>35</v>
@@ -9272,10 +9248,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>235</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>236</v>
       </c>
       <c r="F10" s="134" t="s">
         <v>35</v>
@@ -9289,10 +9265,10 @@
         <v>3</v>
       </c>
       <c r="D11" s="124" t="s">
+        <v>236</v>
+      </c>
+      <c r="E11" s="124" t="s">
         <v>237</v>
-      </c>
-      <c r="E11" s="124" t="s">
-        <v>238</v>
       </c>
       <c r="F11" s="154" t="s">
         <v>35</v>
@@ -9352,7 +9328,7 @@
     </row>
     <row r="2" spans="1:7" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="210" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B2" s="240">
         <v>101</v>
@@ -9361,10 +9337,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="F2" s="74" t="s">
         <v>35</v>
@@ -9429,10 +9405,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="254" t="s">
         <v>201</v>
-      </c>
-      <c r="E6" s="254" t="s">
-        <v>202</v>
       </c>
       <c r="F6" s="79" t="s">
         <v>35</v>
@@ -9446,10 +9422,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="138" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" s="138" t="s">
         <v>242</v>
-      </c>
-      <c r="E7" s="138" t="s">
-        <v>243</v>
       </c>
       <c r="F7" s="79" t="s">
         <v>35</v>
@@ -9463,10 +9439,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>244</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>245</v>
       </c>
       <c r="F8" s="76" t="s">
         <v>35</v>
@@ -9486,7 +9462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -9589,7 +9565,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F5" s="75" t="s">
         <v>35</v>
@@ -9620,10 +9596,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>157</v>
       </c>
       <c r="F7" s="76" t="s">
         <v>35</v>
@@ -9801,7 +9777,7 @@
         <v>15</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F17" s="75" t="s">
         <v>53</v>
@@ -10102,7 +10078,7 @@
         <v>122</v>
       </c>
       <c r="F14" s="308" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G14" s="15"/>
     </row>
@@ -10190,7 +10166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -10594,7 +10570,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5" s="169" t="s">
         <v>38</v>
@@ -10702,7 +10678,7 @@
         <v>50</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C11" s="62">
         <v>1</v>
@@ -10740,7 +10716,7 @@
         <v>76</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C13" s="62">
         <v>1</v>
@@ -10795,7 +10771,7 @@
         <v>80</v>
       </c>
       <c r="B16" s="115" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C16" s="132">
         <v>1</v>
@@ -10850,7 +10826,7 @@
         <v>86</v>
       </c>
       <c r="B19" s="61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C19" s="62">
         <v>1</v>
@@ -10914,8 +10890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11126,7 +11102,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>38</v>
@@ -11181,7 +11157,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>69</v>
@@ -11201,7 +11177,7 @@
         <v>140</v>
       </c>
       <c r="E15" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F15" s="133" t="s">
         <v>35</v>
@@ -11232,10 +11208,10 @@
         <v>5</v>
       </c>
       <c r="D17" s="110" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E17" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F17" s="75" t="s">
         <v>35</v>
@@ -11304,7 +11280,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>38</v>
@@ -11321,7 +11297,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>69</v>
@@ -11367,7 +11343,7 @@
     </row>
     <row r="25" spans="1:7" ht="67.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B25" s="26" t="s">
         <v>95</v>
@@ -11393,10 +11369,10 @@
         <v>2</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F26" s="76" t="s">
         <v>35</v>
@@ -11405,10 +11381,10 @@
     </row>
     <row r="27" spans="1:7" ht="75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C27" s="4">
         <v>1</v>
@@ -11431,10 +11407,10 @@
         <v>2</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F28" s="76" t="s">
         <v>35</v>
@@ -11443,10 +11419,10 @@
     </row>
     <row r="29" spans="1:7" ht="77.400000000000006" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C29" s="4">
         <v>1</v>
@@ -11469,10 +11445,10 @@
         <v>2</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F30" s="76" t="s">
         <v>35</v>
@@ -11481,10 +11457,10 @@
     </row>
     <row r="31" spans="1:7" ht="75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C31" s="4">
         <v>1</v>
@@ -11507,10 +11483,10 @@
         <v>2</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F32" s="76" t="s">
         <v>35</v>
@@ -11519,10 +11495,10 @@
     </row>
     <row r="33" spans="1:7" ht="63" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
@@ -11545,10 +11521,10 @@
         <v>2</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F34" s="76" t="s">
         <v>35</v>
@@ -11747,7 +11723,7 @@
         <v>58</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C9" s="71">
         <v>1</v>
@@ -11906,13 +11882,13 @@
         <v>10</v>
       </c>
       <c r="D18" s="162" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E18" s="162" t="s">
         <v>148</v>
       </c>
       <c r="F18" s="163" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G18" s="72"/>
     </row>
@@ -11970,10 +11946,10 @@
     </row>
     <row r="2" spans="1:16" ht="58.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="188" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B2" s="199" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C2" s="189">
         <v>1</v>
@@ -12013,10 +11989,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="42" t="s">
         <v>163</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>164</v>
       </c>
       <c r="F4" s="196" t="s">
         <v>35</v>
@@ -12025,10 +12001,10 @@
     </row>
     <row r="5" spans="1:16" ht="58.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="98" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="200" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191">
         <v>1</v>
@@ -12085,7 +12061,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>38</v>
@@ -12102,7 +12078,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>69</v>
@@ -12119,10 +12095,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="182" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="182" t="s">
         <v>171</v>
-      </c>
-      <c r="E10" s="182" t="s">
-        <v>172</v>
       </c>
       <c r="F10" s="198" t="s">
         <v>35</v>
@@ -12136,10 +12112,10 @@
         <v>7</v>
       </c>
       <c r="D11" s="183" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="183" t="s">
         <v>173</v>
-      </c>
-      <c r="E11" s="183" t="s">
-        <v>174</v>
       </c>
       <c r="F11" s="198" t="s">
         <v>35</v>
@@ -12153,10 +12129,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="42" t="s">
         <v>175</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>176</v>
       </c>
       <c r="F12" s="196" t="s">
         <v>35</v>
@@ -12215,10 +12191,10 @@
     </row>
     <row r="2" spans="1:16" ht="72.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="210" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2" s="211" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C2" s="23">
         <v>1</v>
@@ -12275,7 +12251,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5" s="168" t="s">
         <v>38</v>
@@ -12292,10 +12268,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>187</v>
       </c>
       <c r="F6" s="75" t="s">
         <v>35</v>
@@ -12309,10 +12285,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>188</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>189</v>
       </c>
       <c r="F7" s="76" t="s">
         <v>35</v>
@@ -12321,10 +12297,10 @@
     </row>
     <row r="8" spans="1:16" ht="72.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="210" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="211" t="s">
         <v>190</v>
-      </c>
-      <c r="B8" s="211" t="s">
-        <v>191</v>
       </c>
       <c r="C8" s="218">
         <v>1</v>
@@ -12381,7 +12357,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E11" s="168" t="s">
         <v>38</v>
@@ -12398,10 +12374,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>187</v>
       </c>
       <c r="F12" s="134" t="s">
         <v>35</v>
@@ -12415,10 +12391,10 @@
         <v>6</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="F13" s="134" t="s">
         <v>35</v>
@@ -12432,10 +12408,10 @@
         <v>7</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>195</v>
       </c>
       <c r="F14" s="134" t="s">
         <v>35</v>
@@ -12449,10 +12425,10 @@
         <v>8</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F15" s="154" t="s">
         <v>35</v>
